--- a/Tech.xlsx
+++ b/Tech.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Sectors\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C220976F-B0AE-45E9-9923-32ADC21CB567}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9106BBC-9D8E-48EA-BF78-56BEB4FA6C2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="225" yWindow="4680" windowWidth="38175" windowHeight="15240" xr2:uid="{99A4F583-0E14-4765-AB16-7E206A98D14D}"/>
+    <workbookView xWindow="225" yWindow="1950" windowWidth="38175" windowHeight="15240" xr2:uid="{99A4F583-0E14-4765-AB16-7E206A98D14D}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -93,6 +93,7 @@
     <externalReference r:id="rId76"/>
     <externalReference r:id="rId77"/>
     <externalReference r:id="rId78"/>
+    <externalReference r:id="rId79"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -115,7 +116,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4207" uniqueCount="2593">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4208" uniqueCount="2593">
   <si>
     <t>Name</t>
   </si>
@@ -9455,51 +9456,6 @@
     <sheetNames>
       <sheetName val="Main"/>
       <sheetName val="Model"/>
-      <sheetName val="14th"/>
-      <sheetName val="IP"/>
-      <sheetName val="Semiconductors"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="2">
-          <cell r="L2">
-            <v>20</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="L4">
-            <v>85340</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="L5">
-            <v>35097</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="L6">
-            <v>53029</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink42.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Main"/>
-      <sheetName val="Model"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
@@ -9530,7 +9486,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink43.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink42.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -9569,7 +9525,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink44.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink43.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -9608,7 +9564,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink45.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink44.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -9647,7 +9603,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink46.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink45.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -9692,7 +9648,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink47.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink46.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -9731,7 +9687,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink48.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink47.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -9770,7 +9726,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink49.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink48.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -9799,6 +9755,45 @@
         </row>
         <row r="6">
           <cell r="I6">
+            <v>0</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink49.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="G3">
+            <v>172.39</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="G5">
+            <v>71610.157641209997</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="G6">
+            <v>4078</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="G7">
             <v>0</v>
           </cell>
         </row>
@@ -9860,45 +9855,6 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="3">
-          <cell r="G3">
-            <v>172.39</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="G5">
-            <v>71610.157641209997</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="G6">
-            <v>4078</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="G7">
-            <v>0</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink51.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Main"/>
-      <sheetName val="Model"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
         <row r="2">
           <cell r="I2">
             <v>141.63</v>
@@ -9926,7 +9882,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink52.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink51.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -9965,7 +9921,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink53.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink52.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -10004,7 +9960,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink54.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink53.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -10041,7 +9997,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink55.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink54.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -10080,7 +10036,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink56.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink55.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -10119,7 +10075,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink57.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink56.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -10158,7 +10114,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink58.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink57.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -10197,7 +10153,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink59.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink58.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -10227,6 +10183,45 @@
         <row r="7">
           <cell r="L7">
             <v>3657.9</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink59.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="I2">
+            <v>195.81</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="I4">
+            <v>25231.503659940001</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="I5">
+            <v>5874</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="I6">
+            <v>6266</v>
           </cell>
         </row>
       </sheetData>
@@ -10290,86 +10285,6 @@
     <sheetNames>
       <sheetName val="Main"/>
       <sheetName val="Model"/>
-      <sheetName val="Brokers"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="2">
-          <cell r="L2">
-            <v>53.98</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="L4">
-            <v>47797.165347199996</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="L5">
-            <v>4524</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="L6">
-            <v>0</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink61.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Main"/>
-      <sheetName val="Model"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="2">
-          <cell r="I2">
-            <v>195.81</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="I4">
-            <v>25231.503659940001</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="I5">
-            <v>5874</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="I6">
-            <v>6266</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink62.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Main"/>
-      <sheetName val="Model"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
@@ -10400,7 +10315,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink63.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink61.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -10439,7 +10354,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink64.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink62.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -10478,7 +10393,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink65.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink63.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -10517,7 +10432,46 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink66.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink64.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="I2">
+            <v>65.7</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="I4">
+            <v>7075.3846356000004</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="I5">
+            <v>640.70899999999995</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="I6">
+            <v>0</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink65.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -10556,7 +10510,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink67.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink66.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -10595,7 +10549,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink68.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink67.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -10634,7 +10588,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink69.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink68.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -10668,6 +10622,43 @@
         </row>
       </sheetData>
       <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink69.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Main"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="J2">
+            <v>53.86</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="J4">
+            <v>33365.192799999997</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="J5">
+            <v>8478.6730000000007</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="J6">
+            <v>6105.4360000000006</v>
+          </cell>
+        </row>
+      </sheetData>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -10724,30 +10715,34 @@
     </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="Main"/>
+      <sheetName val="Model"/>
+      <sheetName val="Brokers"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="2">
-          <cell r="J2">
-            <v>53.86</v>
+          <cell r="L2">
+            <v>53.98</v>
           </cell>
         </row>
         <row r="4">
-          <cell r="J4">
-            <v>33365.192799999997</v>
+          <cell r="L4">
+            <v>47797.165347199996</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="J5">
-            <v>8478.6730000000007</v>
+          <cell r="L5">
+            <v>4524</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="J6">
-            <v>6105.4360000000006</v>
+          <cell r="L6">
+            <v>0</v>
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -10762,27 +10757,72 @@
     <sheetNames>
       <sheetName val="Main"/>
       <sheetName val="Model"/>
+      <sheetName val="14th"/>
+      <sheetName val="IP"/>
+      <sheetName val="Semiconductors"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="L2">
+            <v>20</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="L4">
+            <v>85340</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="L5">
+            <v>35097</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="L6">
+            <v>53029</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink72.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="2">
           <cell r="I2">
-            <v>65.7</v>
+            <v>512.14</v>
           </cell>
         </row>
         <row r="4">
           <cell r="I4">
-            <v>7075.3846356000004</v>
+            <v>79187.125722640005</v>
           </cell>
         </row>
         <row r="5">
           <cell r="I5">
-            <v>640.70899999999995</v>
+            <v>3809.3690000000001</v>
           </cell>
         </row>
         <row r="6">
           <cell r="I6">
-            <v>0</v>
+            <v>14.22</v>
           </cell>
         </row>
       </sheetData>
@@ -11193,7 +11233,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomRight" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12854,15 +12894,15 @@
         <v>45</v>
       </c>
       <c r="E48" s="4">
-        <f>+[41]Main!$L$2</f>
+        <f>+[71]Main!$L$2</f>
         <v>20</v>
       </c>
       <c r="F48" s="4">
-        <f>+[41]Main!$L$4</f>
+        <f>+[71]Main!$L$4</f>
         <v>85340</v>
       </c>
       <c r="G48" s="4">
-        <f>+[41]Main!$L$6-[41]Main!$L$5</f>
+        <f>+[71]Main!$L$6-[71]Main!$L$5</f>
         <v>17932</v>
       </c>
       <c r="H48" s="4">
@@ -12929,15 +12969,15 @@
         <v>45</v>
       </c>
       <c r="E51" s="4">
-        <f>+[42]Main!$G$3</f>
+        <f>+[41]Main!$G$3</f>
         <v>86.2</v>
       </c>
       <c r="F51" s="4">
-        <f>+[42]Main!$G$5</f>
+        <f>+[41]Main!$G$5</f>
         <v>202083.10843720002</v>
       </c>
       <c r="G51" s="4">
-        <f>+[42]Main!$G$7-[42]Main!$G$6</f>
+        <f>+[41]Main!$G$7-[41]Main!$G$6</f>
         <v>-5229.9870000000001</v>
       </c>
       <c r="H51" s="4">
@@ -12988,15 +13028,15 @@
         <v>1133</v>
       </c>
       <c r="E53" s="4">
-        <f>+[43]Main!$J$2</f>
+        <f>+[42]Main!$J$2</f>
         <v>142.5</v>
       </c>
       <c r="F53" s="4">
-        <f>+[43]Main!$J$4*FX!C2</f>
+        <f>+[42]Main!$J$4*FX!C2</f>
         <v>59264.286524999996</v>
       </c>
       <c r="G53" s="4">
-        <f>+([43]Main!$J$6-[43]Main!$J$5)*FX!C2</f>
+        <f>+([42]Main!$J$6-[42]Main!$J$5)*FX!C2</f>
         <v>-8207.3572199999999</v>
       </c>
       <c r="H53" s="4">
@@ -13022,15 +13062,15 @@
         <v>45</v>
       </c>
       <c r="E54" s="4">
-        <f>+[44]Main!$H$2</f>
+        <f>+[43]Main!$H$2</f>
         <v>119.01</v>
       </c>
       <c r="F54" s="4">
-        <f>+[44]Main!$H$4</f>
+        <f>+[43]Main!$H$4</f>
         <v>83361.643560510012</v>
       </c>
       <c r="G54" s="4">
-        <f>+[44]Main!$H$6-[44]Main!$H$5</f>
+        <f>+[43]Main!$H$6-[43]Main!$H$5</f>
         <v>19797</v>
       </c>
       <c r="H54" s="4">
@@ -13059,15 +13099,15 @@
         <v>45</v>
       </c>
       <c r="E55" s="4">
-        <f>+[45]Main!$H$2</f>
+        <f>+[44]Main!$H$2</f>
         <v>128.30000000000001</v>
       </c>
       <c r="F55" s="4">
-        <f>+[45]Main!$H$4</f>
+        <f>+[44]Main!$H$4</f>
         <v>81338.561412000025</v>
       </c>
       <c r="G55" s="4">
-        <f>+[45]Main!$H$6-[45]Main!$H$5</f>
+        <f>+[44]Main!$H$6-[44]Main!$H$5</f>
         <v>-9262</v>
       </c>
       <c r="H55" s="4">
@@ -13096,15 +13136,15 @@
         <v>45</v>
       </c>
       <c r="E56" s="4">
-        <f>+[46]Main!$I$2</f>
+        <f>+[45]Main!$I$2</f>
         <v>64.8</v>
       </c>
       <c r="F56" s="4">
-        <f>+[46]Main!$I$4</f>
+        <f>+[45]Main!$I$4</f>
         <v>63020.127319199994</v>
       </c>
       <c r="G56" s="4">
-        <f>+[46]Main!$I$6-[46]Main!$I$5</f>
+        <f>+[45]Main!$I$6-[45]Main!$I$5</f>
         <v>206</v>
       </c>
       <c r="H56" s="4">
@@ -13126,7 +13166,7 @@
         <f t="shared" si="2"/>
         <v>54</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="1" t="s">
         <v>125</v>
       </c>
       <c r="C57" t="s">
@@ -13135,10 +13175,25 @@
       <c r="D57" t="s">
         <v>45</v>
       </c>
-      <c r="E57" s="4"/>
-      <c r="F57" s="4"/>
-      <c r="G57" s="4"/>
-      <c r="H57" s="4"/>
+      <c r="E57" s="4">
+        <f>+[72]Main!$I$2</f>
+        <v>512.14</v>
+      </c>
+      <c r="F57" s="4">
+        <f>+[72]Main!$I$4</f>
+        <v>79187.125722640005</v>
+      </c>
+      <c r="G57" s="4">
+        <f>+[72]Main!$I$6-[72]Main!$I$5</f>
+        <v>-3795.1490000000003</v>
+      </c>
+      <c r="H57" s="4">
+        <f>+F57+G57</f>
+        <v>75391.97672264</v>
+      </c>
+      <c r="I57" s="8" t="s">
+        <v>712</v>
+      </c>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A58" s="5">
@@ -13155,15 +13210,15 @@
         <v>128</v>
       </c>
       <c r="E58" s="4">
-        <f>+[47]Main!$H$2</f>
+        <f>+[46]Main!$H$2</f>
         <v>596.89919999999995</v>
       </c>
       <c r="F58" s="4">
-        <f>+[47]Main!$H$4*FX!C4</f>
+        <f>+[46]Main!$H$4*FX!C4</f>
         <v>122146.44890610932</v>
       </c>
       <c r="G58" s="4">
-        <f>+([47]Main!$H$6-[47]Main!$H$5)*FX!C4</f>
+        <f>+([46]Main!$H$6-[46]Main!$H$5)*FX!C4</f>
         <v>-7596.96</v>
       </c>
       <c r="H58" s="4">
@@ -13252,15 +13307,15 @@
         <v>45</v>
       </c>
       <c r="E62" s="4">
-        <f>+[48]Main!$I$2</f>
+        <f>+[47]Main!$I$2</f>
         <v>421.65</v>
       </c>
       <c r="F62" s="4">
-        <f>+[48]Main!$I$4</f>
+        <f>+[47]Main!$I$4</f>
         <v>103857.20686979999</v>
       </c>
       <c r="G62" s="4">
-        <f>+[48]Main!$I$6-[48]Main!$I$5</f>
+        <f>+[47]Main!$I$6-[47]Main!$I$5</f>
         <v>-3516.7139999999995</v>
       </c>
       <c r="H62" s="4">
@@ -13324,15 +13379,15 @@
         <v>87</v>
       </c>
       <c r="E65" s="4">
-        <f>+[49]Main!$I$2</f>
+        <f>+[48]Main!$I$2</f>
         <v>10935</v>
       </c>
       <c r="F65" s="4">
-        <f>+[49]Main!$I$4*FX!C6</f>
+        <f>+[48]Main!$I$4*FX!C6</f>
         <v>92307.638475</v>
       </c>
       <c r="G65" s="4">
-        <f>+([49]Main!$I$6-[49]Main!$I$5)*FX!C6</f>
+        <f>+([48]Main!$I$6-[48]Main!$I$5)*FX!C6</f>
         <v>-9648.2749999999996</v>
       </c>
       <c r="H65" s="4">
@@ -13469,15 +13524,15 @@
         <v>45</v>
       </c>
       <c r="E72" s="4">
-        <f>+[50]Main!$G$3</f>
+        <f>+[49]Main!$G$3</f>
         <v>172.39</v>
       </c>
       <c r="F72" s="4">
-        <f>+[50]Main!$G$5</f>
+        <f>+[49]Main!$G$5</f>
         <v>71610.157641209997</v>
       </c>
       <c r="G72" s="4">
-        <f>+[50]Main!$G$7-[50]Main!$G$6</f>
+        <f>+[49]Main!$G$7-[49]Main!$G$6</f>
         <v>-4078</v>
       </c>
       <c r="H72" s="4">
@@ -13525,15 +13580,15 @@
         <v>162</v>
       </c>
       <c r="E74" s="4">
-        <f>+[51]Main!$I$2</f>
+        <f>+[50]Main!$I$2</f>
         <v>141.63</v>
       </c>
       <c r="F74" s="4">
-        <f>+[51]Main!$I$4</f>
+        <f>+[50]Main!$I$4</f>
         <v>82151.979704910002</v>
       </c>
       <c r="G74" s="4">
-        <f>+[51]Main!$I$6-[51]Main!$I$5</f>
+        <f>+[50]Main!$I$6-[50]Main!$I$5</f>
         <v>1013.5080000000007</v>
       </c>
       <c r="H74" s="4">
@@ -13673,15 +13728,15 @@
         <v>59</v>
       </c>
       <c r="E81" s="4">
-        <f>+[52]Main!$I$2</f>
+        <f>+[51]Main!$I$2</f>
         <v>22.51</v>
       </c>
       <c r="F81" s="4">
-        <f>+[52]Main!$I$4</f>
+        <f>+[51]Main!$I$4</f>
         <v>40518</v>
       </c>
       <c r="G81" s="4">
-        <f>+[52]Main!$I$6-[52]Main!$I$5</f>
+        <f>+[51]Main!$I$6-[51]Main!$I$5</f>
         <v>-4497</v>
       </c>
       <c r="H81" s="4">
@@ -13726,15 +13781,15 @@
         <v>45</v>
       </c>
       <c r="E83" s="4">
-        <f>+[53]Main!$I$2</f>
+        <f>+[52]Main!$I$2</f>
         <v>355.99</v>
       </c>
       <c r="F83" s="4">
-        <f>+[53]Main!$I$4</f>
+        <f>+[52]Main!$I$4</f>
         <v>121021.73065369001</v>
       </c>
       <c r="G83" s="4">
-        <f>+[53]Main!$I$6-[53]Main!$I$5</f>
+        <f>+[52]Main!$I$6-[52]Main!$I$5</f>
         <v>2767.482</v>
       </c>
       <c r="H83" s="4">
@@ -13817,15 +13872,15 @@
         <v>45</v>
       </c>
       <c r="E87" s="4">
-        <f>+[54]Main!$I$2</f>
+        <f>+[53]Main!$I$2</f>
         <v>337.5</v>
       </c>
       <c r="F87" s="4">
-        <f>+[54]Main!$I$4</f>
+        <f>+[53]Main!$I$4</f>
         <v>78536.25</v>
       </c>
       <c r="G87" s="4">
-        <f>+[54]Main!$I$6-[54]Main!$I$5</f>
+        <f>+[53]Main!$I$6-[53]Main!$I$5</f>
         <v>-42129.569890000006</v>
       </c>
       <c r="H87" s="4">
@@ -13892,15 +13947,15 @@
         <v>45</v>
       </c>
       <c r="E90" s="4">
-        <f>+[55]Main!$H$2</f>
+        <f>+[54]Main!$H$2</f>
         <v>276.01</v>
       </c>
       <c r="F90" s="4">
-        <f>+[55]Main!$H$4</f>
+        <f>+[54]Main!$H$4</f>
         <v>69099.22577243</v>
       </c>
       <c r="G90" s="4">
-        <f>+[55]Main!$H$6-[55]Main!$H$5</f>
+        <f>+[54]Main!$H$6-[54]Main!$H$5</f>
         <v>-3259.3870999999999</v>
       </c>
       <c r="H90" s="4">
@@ -14021,15 +14076,15 @@
         <v>45</v>
       </c>
       <c r="E96" s="4">
-        <f>+[56]Main!$I$2</f>
+        <f>+[55]Main!$I$2</f>
         <v>155.19999999999999</v>
       </c>
       <c r="F96" s="4">
-        <f>+[56]Main!$I$4</f>
+        <f>+[55]Main!$I$4</f>
         <v>39886.399999999994</v>
       </c>
       <c r="G96" s="4">
-        <f>+[56]Main!$I$6-[56]Main!$I$5</f>
+        <f>+[55]Main!$I$6-[55]Main!$I$5</f>
         <v>-364</v>
       </c>
       <c r="H96" s="4">
@@ -14153,15 +14208,15 @@
         <v>45</v>
       </c>
       <c r="E102" s="4">
-        <f>+[57]Main!$I$2</f>
+        <f>+[56]Main!$I$2</f>
         <v>28.82</v>
       </c>
       <c r="F102" s="4">
-        <f>+[57]Main!$I$4</f>
+        <f>+[56]Main!$I$4</f>
         <v>27027.330751519999</v>
       </c>
       <c r="G102" s="4">
-        <f>+[57]Main!$I$6-[57]Main!$I$5</f>
+        <f>+[56]Main!$I$6-[56]Main!$I$5</f>
         <v>6416</v>
       </c>
       <c r="H102" s="4">
@@ -14244,15 +14299,15 @@
         <v>45</v>
       </c>
       <c r="E106" s="4">
-        <f>+[58]Main!$H$2</f>
+        <f>+[57]Main!$H$2</f>
         <v>66.180000000000007</v>
       </c>
       <c r="F106" s="4">
-        <f>+[58]Main!$H$4</f>
+        <f>+[57]Main!$H$4</f>
         <v>30839.880000000005</v>
       </c>
       <c r="G106" s="4">
-        <f>+[58]Main!$H$6-[58]Main!$H$5</f>
+        <f>+[57]Main!$H$6-[57]Main!$H$5</f>
         <v>2527</v>
       </c>
       <c r="H106" s="4">
@@ -14547,15 +14602,15 @@
         <v>45</v>
       </c>
       <c r="E121" s="4">
-        <f>+[59]Main!$L$3</f>
+        <f>+[58]Main!$L$3</f>
         <v>212.39</v>
       </c>
       <c r="F121" s="4">
-        <f>+[59]Main!$L$5</f>
+        <f>+[58]Main!$L$5</f>
         <v>37485.92299734</v>
       </c>
       <c r="G121" s="4">
-        <f>+[59]Main!$L$7-[59]Main!$L$6</f>
+        <f>+[58]Main!$L$7-[58]Main!$L$6</f>
         <v>2432.9</v>
       </c>
       <c r="H121" s="4">
@@ -15021,15 +15076,15 @@
         <v>45</v>
       </c>
       <c r="E145" s="4">
-        <f>+[60]Main!$L$2</f>
+        <f>+[70]Main!$L$2</f>
         <v>53.98</v>
       </c>
       <c r="F145" s="4">
-        <f>+[60]Main!$L$4</f>
+        <f>+[70]Main!$L$4</f>
         <v>47797.165347199996</v>
       </c>
       <c r="G145" s="4">
-        <f>+[60]Main!$L$6-[60]Main!$L$5</f>
+        <f>+[70]Main!$L$6-[70]Main!$L$5</f>
         <v>-4524</v>
       </c>
       <c r="H145" s="4">
@@ -15058,15 +15113,15 @@
         <v>45</v>
       </c>
       <c r="E146" s="4">
-        <f>+[61]Main!$I$2</f>
+        <f>+[59]Main!$I$2</f>
         <v>195.81</v>
       </c>
       <c r="F146" s="4">
-        <f>+[61]Main!$I$4</f>
+        <f>+[59]Main!$I$4</f>
         <v>25231.503659940001</v>
       </c>
       <c r="G146" s="4">
-        <f>+[61]Main!$I$6-[61]Main!$I$5</f>
+        <f>+[59]Main!$I$6-[59]Main!$I$5</f>
         <v>392</v>
       </c>
       <c r="H146" s="4">
@@ -15206,15 +15261,15 @@
         <v>45</v>
       </c>
       <c r="E153" s="4">
-        <f>+[62]Main!$I$2</f>
+        <f>+[60]Main!$I$2</f>
         <v>462.43</v>
       </c>
       <c r="F153" s="4">
-        <f>+[62]Main!$I$4</f>
+        <f>+[60]Main!$I$4</f>
         <v>17586.234171780001</v>
       </c>
       <c r="G153" s="4">
-        <f>+[62]Main!$I$6-[62]Main!$I$5</f>
+        <f>+[60]Main!$I$6-[60]Main!$I$5</f>
         <v>1000.3120000000001</v>
       </c>
       <c r="H153" s="4">
@@ -15243,15 +15298,15 @@
         <v>45</v>
       </c>
       <c r="E154" s="4">
-        <f>+[63]Main!$I$2</f>
+        <f>+[61]Main!$I$2</f>
         <v>10.34</v>
       </c>
       <c r="F154" s="4">
-        <f>+[63]Main!$I$4</f>
+        <f>+[61]Main!$I$4</f>
         <v>17540.372740000003</v>
       </c>
       <c r="G154" s="4">
-        <f>+[63]Main!$I$6-[63]Main!$I$5</f>
+        <f>+[61]Main!$I$6-[61]Main!$I$5</f>
         <v>267.65000000000009</v>
       </c>
       <c r="H154" s="4">
@@ -16192,15 +16247,15 @@
         <v>45</v>
       </c>
       <c r="E203" s="4">
-        <f>+[64]Main!$I$2</f>
+        <f>+[62]Main!$I$2</f>
         <v>165.35</v>
       </c>
       <c r="F203" s="4">
-        <f>+[64]Main!$I$4</f>
+        <f>+[62]Main!$I$4</f>
         <v>29912.534107149997</v>
       </c>
       <c r="G203" s="4">
-        <f>+[64]Main!$I$6-[64]Main!$I$5</f>
+        <f>+[62]Main!$I$6-[62]Main!$I$5</f>
         <v>-1840.8090000000002</v>
       </c>
       <c r="H203" s="4">
@@ -16226,15 +16281,15 @@
         <v>45</v>
       </c>
       <c r="E204" s="4">
-        <f>+[65]Main!$I$2</f>
+        <f>+[63]Main!$I$2</f>
         <v>295</v>
       </c>
       <c r="F204" s="4">
-        <f>+[65]Main!$I$4</f>
+        <f>+[63]Main!$I$4</f>
         <v>12975.44461</v>
       </c>
       <c r="G204" s="4">
-        <f>+[65]Main!$I$6-[65]Main!$I$5</f>
+        <f>+[63]Main!$I$6-[63]Main!$I$5</f>
         <v>-880.76300000000003</v>
       </c>
       <c r="H204" s="4">
@@ -17058,15 +17113,15 @@
         <v>302</v>
       </c>
       <c r="E247" s="4">
-        <f>+[71]Main!$I$2</f>
+        <f>+[64]Main!$I$2</f>
         <v>65.7</v>
       </c>
       <c r="F247" s="4">
-        <f>+[71]Main!$I$4</f>
+        <f>+[64]Main!$I$4</f>
         <v>7075.3846356000004</v>
       </c>
       <c r="G247" s="4">
-        <f>+[71]Main!$I$6-[71]Main!$I$5</f>
+        <f>+[64]Main!$I$6-[64]Main!$I$5</f>
         <v>-640.70899999999995</v>
       </c>
       <c r="H247" s="4">
@@ -18460,15 +18515,15 @@
         <v>45</v>
       </c>
       <c r="E320" s="4">
-        <f>+[66]Main!$I$3</f>
+        <f>+[65]Main!$I$3</f>
         <v>12.26</v>
       </c>
       <c r="F320" s="4">
-        <f>+[66]Main!$I$5</f>
+        <f>+[65]Main!$I$5</f>
         <v>2157.6645436399999</v>
       </c>
       <c r="G320" s="4">
-        <f>+[66]Main!$I$7-[66]Main!$I$6</f>
+        <f>+[65]Main!$I$7-[65]Main!$I$6</f>
         <v>280.74099999999999</v>
       </c>
       <c r="H320" s="4">
@@ -18494,15 +18549,15 @@
         <v>45</v>
       </c>
       <c r="E321" s="4">
-        <f>+[67]Main!$I$2</f>
+        <f>+[66]Main!$I$2</f>
         <v>7.36</v>
       </c>
       <c r="F321" s="4">
-        <f>+[67]Main!$I$4</f>
+        <f>+[66]Main!$I$4</f>
         <v>1581.06035488</v>
       </c>
       <c r="G321" s="4">
-        <f>+[67]Main!$I$6-[67]Main!$I$5</f>
+        <f>+[66]Main!$I$6-[66]Main!$I$5</f>
         <v>-73.627598000000006</v>
       </c>
       <c r="H321" s="4">
@@ -32645,6 +32700,7 @@
     <hyperlink ref="B39" r:id="rId67" xr:uid="{26ECE735-DD01-4AC2-A7BF-B58A0C21AC4C}"/>
     <hyperlink ref="B53" r:id="rId68" xr:uid="{6718A887-05B5-4711-BDAC-F73D7E4BCA46}"/>
     <hyperlink ref="B247" r:id="rId69" xr:uid="{B18B5185-F69E-4727-B9A5-9536254CB591}"/>
+    <hyperlink ref="B57" r:id="rId70" xr:uid="{727AB356-39CF-4BB2-99B5-9FB8245AFDE6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -32732,15 +32788,15 @@
         <v>45</v>
       </c>
       <c r="E4">
-        <f>+[68]Main!$J$2</f>
+        <f>+[67]Main!$J$2</f>
         <v>333.79</v>
       </c>
       <c r="F4" s="4">
-        <f>+[68]Main!$J$4</f>
+        <f>+[67]Main!$J$4</f>
         <v>620107.49130901007</v>
       </c>
       <c r="G4" s="4">
-        <f>+[68]Main!$J$6-[68]Main!$J$5</f>
+        <f>+[67]Main!$J$6-[67]Main!$J$5</f>
         <v>3163</v>
       </c>
       <c r="H4" s="4">
@@ -32766,15 +32822,15 @@
         <v>45</v>
       </c>
       <c r="E5">
-        <f>+[69]Main!$I$2</f>
+        <f>+[68]Main!$I$2</f>
         <v>519.49</v>
       </c>
       <c r="F5" s="4">
-        <f>+[69]Main!$I$4</f>
+        <f>+[68]Main!$I$4</f>
         <v>473623.45178194001</v>
       </c>
       <c r="G5" s="4">
-        <f>+[69]Main!$I$6-[69]Main!$I$5</f>
+        <f>+[68]Main!$I$6-[68]Main!$I$5</f>
         <v>8962</v>
       </c>
       <c r="H5" s="4">
@@ -32854,15 +32910,15 @@
         <v>45</v>
       </c>
       <c r="E9">
-        <f>+[46]Main!$I$2</f>
+        <f>+[45]Main!$I$2</f>
         <v>64.8</v>
       </c>
       <c r="F9" s="4">
-        <f>+[46]Main!$I$4</f>
+        <f>+[45]Main!$I$4</f>
         <v>63020.127319199994</v>
       </c>
       <c r="G9" s="4">
-        <f>+[46]Main!$I$6-[46]Main!$I$5</f>
+        <f>+[45]Main!$I$6-[45]Main!$I$5</f>
         <v>206</v>
       </c>
       <c r="H9" s="4">
@@ -32940,15 +32996,15 @@
         <v>45</v>
       </c>
       <c r="E12">
-        <f>+[70]Main!$J$2</f>
+        <f>+[69]Main!$J$2</f>
         <v>53.86</v>
       </c>
       <c r="F12" s="4">
-        <f>+[70]Main!$J$4</f>
+        <f>+[69]Main!$J$4</f>
         <v>33365.192799999997</v>
       </c>
       <c r="G12" s="4">
-        <f>+[70]Main!$J$6-[70]Main!$J$5</f>
+        <f>+[69]Main!$J$6-[69]Main!$J$5</f>
         <v>-2373.2370000000001</v>
       </c>
       <c r="H12" s="4">

--- a/Tech.xlsx
+++ b/Tech.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Sectors\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F289A9EA-495C-4648-8C18-7A8BF650E33D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49BC819B-9BDC-4655-AFF5-B569A43B6772}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="225" yWindow="780" windowWidth="38175" windowHeight="15240" xr2:uid="{99A4F583-0E14-4765-AB16-7E206A98D14D}"/>
+    <workbookView xWindow="225" yWindow="4980" windowWidth="38175" windowHeight="15240" xr2:uid="{99A4F583-0E14-4765-AB16-7E206A98D14D}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -109,6 +109,8 @@
     <externalReference r:id="rId92"/>
     <externalReference r:id="rId93"/>
     <externalReference r:id="rId94"/>
+    <externalReference r:id="rId95"/>
+    <externalReference r:id="rId96"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -131,7 +133,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4387" uniqueCount="2710">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4392" uniqueCount="2712">
   <si>
     <t>Name</t>
   </si>
@@ -8261,6 +8263,12 @@
   </si>
   <si>
     <t>N26</t>
+  </si>
+  <si>
+    <t>Figma</t>
+  </si>
+  <si>
+    <t>FIG</t>
   </si>
 </sst>
 </file>
@@ -8607,12 +8615,12 @@
       <sheetData sheetId="0">
         <row r="2">
           <cell r="H2">
-            <v>565.5</v>
+            <v>659.1</v>
           </cell>
         </row>
         <row r="4">
           <cell r="H4">
-            <v>221845.65</v>
+            <v>255862.62</v>
           </cell>
         </row>
         <row r="5">
@@ -8684,27 +8692,27 @@
       <sheetData sheetId="0">
         <row r="3">
           <cell r="I3">
-            <v>1006</v>
+            <v>1253.22</v>
           </cell>
         </row>
         <row r="5">
           <cell r="I5">
-            <v>429833.62</v>
+            <v>532882.92942000006</v>
           </cell>
         </row>
         <row r="6">
           <cell r="I6">
-            <v>8371.09</v>
+            <v>8390.52</v>
           </cell>
         </row>
         <row r="7">
           <cell r="I7">
-            <v>15916.918</v>
+            <v>14453.206</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -9424,22 +9432,22 @@
       <sheetData sheetId="0">
         <row r="2">
           <cell r="I2">
-            <v>4834.24</v>
+            <v>5668.04</v>
           </cell>
         </row>
         <row r="4">
           <cell r="I4">
-            <v>159997.45385312001</v>
+            <v>184439.93739752</v>
           </cell>
         </row>
         <row r="5">
           <cell r="I5">
-            <v>15775</v>
+            <v>15578</v>
           </cell>
         </row>
         <row r="6">
           <cell r="I6">
-            <v>16212</v>
+            <v>16024</v>
           </cell>
         </row>
       </sheetData>
@@ -9926,6 +9934,7 @@
       <sheetName val="Model"/>
       <sheetName val="Sheet1"/>
       <sheetName val="Sheet2"/>
+      <sheetName val="14th"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
@@ -9953,6 +9962,7 @@
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
+      <sheetData sheetId="4" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -10523,23 +10533,23 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="2">
-          <cell r="I2">
-            <v>22.51</v>
+          <cell r="J2">
+            <v>81.150000000000006</v>
           </cell>
         </row>
         <row r="4">
-          <cell r="I4">
-            <v>40518</v>
+          <cell r="J4">
+            <v>39872.214139349999</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="I5">
-            <v>6030</v>
+          <cell r="J5">
+            <v>1740.3710000000001</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="I6">
-            <v>1533</v>
+          <cell r="J6">
+            <v>0</v>
           </cell>
         </row>
       </sheetData>
@@ -10563,22 +10573,22 @@
       <sheetData sheetId="0">
         <row r="2">
           <cell r="I2">
-            <v>355.99</v>
+            <v>1790.2</v>
           </cell>
         </row>
         <row r="4">
           <cell r="I4">
-            <v>121021.73065369001</v>
+            <v>43576.493437999998</v>
           </cell>
         </row>
         <row r="5">
           <cell r="I5">
-            <v>741.41099999999994</v>
+            <v>146.64099999999999</v>
           </cell>
         </row>
         <row r="6">
           <cell r="I6">
-            <v>3508.893</v>
+            <v>2528.1790000000001</v>
           </cell>
         </row>
       </sheetData>
@@ -10596,30 +10606,32 @@
     </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="Main"/>
+      <sheetName val="Model"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="2">
           <cell r="I2">
-            <v>337.5</v>
+            <v>22.51</v>
           </cell>
         </row>
         <row r="4">
           <cell r="I4">
-            <v>78536.25</v>
+            <v>40518</v>
           </cell>
         </row>
         <row r="5">
           <cell r="I5">
-            <v>46342.027890000005</v>
+            <v>6030</v>
           </cell>
         </row>
         <row r="6">
           <cell r="I6">
-            <v>4212.4579999999996</v>
+            <v>1533</v>
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -10683,6 +10695,82 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="2">
+          <cell r="I2">
+            <v>355.99</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="I4">
+            <v>121021.73065369001</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="I5">
+            <v>741.41099999999994</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="I6">
+            <v>3508.893</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink61.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Main"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="I2">
+            <v>337.5</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="I4">
+            <v>78536.25</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="I5">
+            <v>46342.027890000005</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="I6">
+            <v>4212.4579999999996</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink62.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
           <cell r="H2">
             <v>276.01</v>
           </cell>
@@ -10709,7 +10797,44 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink61.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink63.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Main"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="J2">
+            <v>53.86</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="J4">
+            <v>33365.192799999997</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="J5">
+            <v>8478.6730000000007</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="J6">
+            <v>6105.4360000000006</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink64.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -10723,12 +10848,12 @@
       <sheetData sheetId="0">
         <row r="2">
           <cell r="I2">
-            <v>155.19999999999999</v>
+            <v>148.77000000000001</v>
           </cell>
         </row>
         <row r="4">
           <cell r="I4">
-            <v>39886.399999999994</v>
+            <v>38233.89</v>
           </cell>
         </row>
         <row r="5">
@@ -10748,7 +10873,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink62.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink65.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -10787,7 +10912,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink63.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink66.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -10826,7 +10951,46 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink64.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink67.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="I2">
+            <v>194.53</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="I4">
+            <v>67601.194415930004</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="I5">
+            <v>204.459</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="I6">
+            <v>0</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink68.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -10865,164 +11029,6 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink65.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Main"/>
-      <sheetName val="Model"/>
-      <sheetName val="Broker"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="2">
-          <cell r="J2">
-            <v>74.849999999999994</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="J4">
-            <v>66052.801730849998</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="J5">
-            <v>4416</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="J6">
-            <v>0</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink66.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Main"/>
-      <sheetName val="Model"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="2">
-          <cell r="I2">
-            <v>195.81</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="I4">
-            <v>25231.503659940001</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="I5">
-            <v>5874</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="I6">
-            <v>6266</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink67.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Main"/>
-      <sheetName val="Model"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="2">
-          <cell r="I2">
-            <v>462.43</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="I4">
-            <v>17586.234171780001</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="I5">
-            <v>358.791</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="I6">
-            <v>1359.1030000000001</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink68.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Main"/>
-      <sheetName val="Model"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="2">
-          <cell r="I2">
-            <v>10.34</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="I4">
-            <v>17540.372740000003</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="I5">
-            <v>3376.279</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="I6">
-            <v>3643.9290000000001</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/externalLinks/externalLink69.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
@@ -11036,23 +11042,23 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="2">
-          <cell r="I2">
-            <v>165.35</v>
+          <cell r="J2">
+            <v>4.42</v>
           </cell>
         </row>
         <row r="4">
-          <cell r="I4">
-            <v>29912.534107149997</v>
+          <cell r="J4">
+            <v>24777.770124900002</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="I5">
-            <v>1840.8090000000002</v>
+          <cell r="J5">
+            <v>7222</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="I6">
-            <v>0</v>
+          <cell r="J6">
+            <v>5134</v>
           </cell>
         </row>
       </sheetData>
@@ -11114,6 +11120,203 @@
     <sheetNames>
       <sheetName val="Main"/>
       <sheetName val="Model"/>
+      <sheetName val="Broker"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="J2">
+            <v>74.849999999999994</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="J4">
+            <v>66052.801730849998</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="J5">
+            <v>4416</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="J6">
+            <v>0</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink71.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="I2">
+            <v>195.81</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="I4">
+            <v>25231.503659940001</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="I5">
+            <v>5874</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="I6">
+            <v>6266</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink72.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="I2">
+            <v>462.43</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="I4">
+            <v>17586.234171780001</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="I5">
+            <v>358.791</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="I6">
+            <v>1359.1030000000001</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink73.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="I2">
+            <v>10.34</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="I4">
+            <v>17540.372740000003</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="I5">
+            <v>3376.279</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="I6">
+            <v>3643.9290000000001</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink74.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="I2">
+            <v>165.35</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="I4">
+            <v>29912.534107149997</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="I5">
+            <v>1840.8090000000002</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="I6">
+            <v>0</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink75.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
@@ -11144,7 +11347,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink71.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink76.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -11183,7 +11386,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink72.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink77.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -11222,7 +11425,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink73.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink78.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -11261,7 +11464,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink74.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink79.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -11291,201 +11494,6 @@
         <row r="6">
           <cell r="J6">
             <v>20609</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink75.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Main"/>
-      <sheetName val="Model"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="2">
-          <cell r="I2">
-            <v>519.49</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="I4">
-            <v>473623.45178194001</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="I5">
-            <v>9264</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="I6">
-            <v>18226</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink76.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Main"/>
-      <sheetName val="Model"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="2">
-          <cell r="J2">
-            <v>494.32</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="J4">
-            <v>151607.94399999999</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="J5">
-            <v>1469</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="J6">
-            <v>11391</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink77.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Main"/>
-      <sheetName val="Model"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="2">
-          <cell r="I2">
-            <v>185.7</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="I4">
-            <v>106522.39852469999</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="I5">
-            <v>1400</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="I6">
-            <v>20281</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink78.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Main"/>
-      <sheetName val="Model"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="2">
-          <cell r="I2">
-            <v>86.25</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="I4">
-            <v>49517.989724999999</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="I5">
-            <v>891</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="I6">
-            <v>9326</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink79.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Main"/>
-      <sheetName val="Model"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="2">
-          <cell r="I2">
-            <v>220.4</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="I4">
-            <v>45785.921346000003</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="I5">
-            <v>1121.145</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="I6">
-            <v>37.414000000000001</v>
           </cell>
         </row>
       </sheetData>
@@ -11547,6 +11555,201 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="2">
+          <cell r="I2">
+            <v>519.49</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="I4">
+            <v>473623.45178194001</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="I5">
+            <v>9264</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="I6">
+            <v>18226</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink81.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="J2">
+            <v>494.32</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="J4">
+            <v>151607.94399999999</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="J5">
+            <v>1469</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="J6">
+            <v>11391</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink82.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="I2">
+            <v>185.7</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="I4">
+            <v>106522.39852469999</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="I5">
+            <v>1400</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="I6">
+            <v>20281</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink83.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="I2">
+            <v>86.25</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="I4">
+            <v>49517.989724999999</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="I5">
+            <v>891</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="I6">
+            <v>9326</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink84.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="I2">
+            <v>220.4</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="I4">
+            <v>45785.921346000003</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="I5">
+            <v>1121.145</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="I6">
+            <v>37.414000000000001</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink85.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
           <cell r="J2">
             <v>544.77</v>
           </cell>
@@ -11573,44 +11776,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink81.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Main"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="2">
-          <cell r="J2">
-            <v>53.86</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="J4">
-            <v>33365.192799999997</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="J5">
-            <v>8478.6730000000007</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="J6">
-            <v>6105.4360000000006</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink82.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink86.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -11649,46 +11815,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink83.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Main"/>
-      <sheetName val="Model"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="2">
-          <cell r="I2">
-            <v>1790.2</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="I4">
-            <v>43576.493437999998</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="I5">
-            <v>146.64099999999999</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="I6">
-            <v>2528.1790000000001</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink84.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink87.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -11727,7 +11854,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink85.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink88.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -11766,45 +11893,6 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink86.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Main"/>
-      <sheetName val="Model"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="2">
-          <cell r="J2">
-            <v>4.42</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="J4">
-            <v>24777.770124900002</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="J5">
-            <v>7222</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="J6">
-            <v>5134</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/externalLinks/externalLink9.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
@@ -11819,22 +11907,22 @@
       <sheetData sheetId="0">
         <row r="2">
           <cell r="H2">
-            <v>1100</v>
+            <v>1130</v>
           </cell>
         </row>
         <row r="4">
           <cell r="H4">
-            <v>28520881.400000002</v>
+            <v>29299770</v>
           </cell>
         </row>
         <row r="5">
           <cell r="H5">
-            <v>2167600</v>
+            <v>2634429</v>
           </cell>
         </row>
         <row r="6">
           <cell r="H6">
-            <v>968509</v>
+            <v>942749</v>
           </cell>
         </row>
       </sheetData>
@@ -12161,18 +12249,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DC46DA1-10F2-4B4F-9A0F-3213D26202A4}">
-  <dimension ref="A1:T1099"/>
+  <dimension ref="A1:T1100"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C128" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I132" sqref="I132"/>
+      <selection pane="bottomRight" activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" customWidth="1"/>
+    <col min="1" max="1" width="5" customWidth="1"/>
     <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="8" width="9.140625" bestFit="1" customWidth="1"/>
@@ -12592,19 +12680,19 @@
       </c>
       <c r="E12" s="4">
         <f>+[9]Main!$H$2</f>
-        <v>1100</v>
+        <v>1130</v>
       </c>
       <c r="F12" s="4">
         <f>+[9]Main!$H$4*FX!C2</f>
-        <v>855626.44200000004</v>
+        <v>878993.1</v>
       </c>
       <c r="G12" s="4">
         <f>+([9]Main!$H$6-[9]Main!$H$5)*FX!C2</f>
-        <v>-35972.729999999996</v>
+        <v>-50750.400000000001</v>
       </c>
       <c r="H12" s="4">
         <f t="shared" si="1"/>
-        <v>819653.71200000006</v>
+        <v>828242.7</v>
       </c>
       <c r="I12" s="8" t="s">
         <v>49</v>
@@ -12706,11 +12794,11 @@
       </c>
       <c r="E15" s="4">
         <f>+[12]Main!$H$2</f>
-        <v>565.5</v>
+        <v>659.1</v>
       </c>
       <c r="F15" s="4">
         <f>+[12]Main!$H$4*FX!C4</f>
-        <v>226282.56299999999</v>
+        <v>260979.87239999999</v>
       </c>
       <c r="G15" s="4">
         <f>+([12]Main!$H$6-[12]Main!$H$5)*FX!C4</f>
@@ -12718,13 +12806,13 @@
       </c>
       <c r="H15" s="4">
         <f>F15+G15</f>
-        <v>220751.511</v>
+        <v>255448.8204</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>711</v>
+        <v>2588</v>
       </c>
       <c r="J15" s="7">
-        <v>45686</v>
+        <v>45945</v>
       </c>
       <c r="R15">
         <v>1984</v>
@@ -12781,25 +12869,25 @@
       </c>
       <c r="E17" s="4">
         <f>+[14]Main!$I$3</f>
-        <v>1006</v>
+        <v>1253.22</v>
       </c>
       <c r="F17" s="4">
         <f>+[14]Main!$I$5</f>
-        <v>429833.62</v>
+        <v>532882.92942000006</v>
       </c>
       <c r="G17" s="4">
         <f>+[14]Main!$I$7-[14]Main!$I$6</f>
-        <v>7545.8279999999995</v>
+        <v>6062.6859999999997</v>
       </c>
       <c r="H17" s="4">
         <f>F17+G17</f>
-        <v>437379.44799999997</v>
+        <v>538945.61542000005</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>711</v>
+        <v>2588</v>
       </c>
       <c r="J17" s="7">
-        <v>45855</v>
+        <v>45946</v>
       </c>
       <c r="R17">
         <v>1997</v>
@@ -13430,19 +13518,19 @@
       </c>
       <c r="E36" s="4">
         <f>+[31]Main!$I$2</f>
-        <v>4834.24</v>
+        <v>5668.04</v>
       </c>
       <c r="F36" s="4">
         <f>+[31]Main!$I$4</f>
-        <v>159997.45385312001</v>
+        <v>184439.93739752</v>
       </c>
       <c r="G36" s="4">
         <f>+[31]Main!$I$6-[31]Main!$I$5</f>
-        <v>437</v>
+        <v>446</v>
       </c>
       <c r="H36" s="4">
         <f>F36+G36</f>
-        <v>160434.45385312001</v>
+        <v>184885.93739752</v>
       </c>
       <c r="I36" s="8" t="s">
         <v>49</v>
@@ -14598,7 +14686,7 @@
         <f t="shared" si="5"/>
         <v>72</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B75" s="1" t="s">
         <v>162</v>
       </c>
       <c r="C75" t="s">
@@ -14607,10 +14695,25 @@
       <c r="D75" t="s">
         <v>45</v>
       </c>
-      <c r="E75" s="4"/>
-      <c r="F75" s="4"/>
-      <c r="G75" s="4"/>
-      <c r="H75" s="4"/>
+      <c r="E75" s="4">
+        <f>+[57]Main!$J$2</f>
+        <v>81.150000000000006</v>
+      </c>
+      <c r="F75" s="4">
+        <f>+[57]Main!$J$4</f>
+        <v>39872.214139349999</v>
+      </c>
+      <c r="G75" s="4">
+        <f>+[57]Main!$J$6-[57]Main!$J$5</f>
+        <v>-1740.3710000000001</v>
+      </c>
+      <c r="H75" s="4">
+        <f>+F75+G75</f>
+        <v>38131.84313935</v>
+      </c>
+      <c r="I75" s="8" t="s">
+        <v>711</v>
+      </c>
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A76" s="5">
@@ -14646,15 +14749,15 @@
         <v>45</v>
       </c>
       <c r="E77" s="4">
-        <f>+[83]Main!$I$2</f>
+        <f>+[58]Main!$I$2</f>
         <v>1790.2</v>
       </c>
       <c r="F77" s="4">
-        <f>+[83]Main!$I$4</f>
+        <f>+[58]Main!$I$4</f>
         <v>43576.493437999998</v>
       </c>
       <c r="G77" s="4">
-        <f>+[83]Main!$I$6-[83]Main!$I$5</f>
+        <f>+[58]Main!$I$6-[58]Main!$I$5</f>
         <v>2381.538</v>
       </c>
       <c r="H77" s="4">
@@ -14737,15 +14840,15 @@
         <v>59</v>
       </c>
       <c r="E81" s="4">
-        <f>+[57]Main!$I$2</f>
+        <f>+[59]Main!$I$2</f>
         <v>22.51</v>
       </c>
       <c r="F81" s="4">
-        <f>+[57]Main!$I$4</f>
+        <f>+[59]Main!$I$4</f>
         <v>40518</v>
       </c>
       <c r="G81" s="4">
-        <f>+[57]Main!$I$6-[57]Main!$I$5</f>
+        <f>+[59]Main!$I$6-[59]Main!$I$5</f>
         <v>-4497</v>
       </c>
       <c r="H81" s="4">
@@ -14790,15 +14893,15 @@
         <v>45</v>
       </c>
       <c r="E83" s="4">
-        <f>+[58]Main!$I$2</f>
+        <f>+[60]Main!$I$2</f>
         <v>355.99</v>
       </c>
       <c r="F83" s="4">
-        <f>+[58]Main!$I$4</f>
+        <f>+[60]Main!$I$4</f>
         <v>121021.73065369001</v>
       </c>
       <c r="G83" s="4">
-        <f>+[58]Main!$I$6-[58]Main!$I$5</f>
+        <f>+[60]Main!$I$6-[60]Main!$I$5</f>
         <v>2767.482</v>
       </c>
       <c r="H83" s="4">
@@ -14881,15 +14984,15 @@
         <v>45</v>
       </c>
       <c r="E87" s="4">
-        <f>+[59]Main!$I$2</f>
+        <f>+[61]Main!$I$2</f>
         <v>337.5</v>
       </c>
       <c r="F87" s="4">
-        <f>+[59]Main!$I$4</f>
+        <f>+[61]Main!$I$4</f>
         <v>78536.25</v>
       </c>
       <c r="G87" s="4">
-        <f>+[59]Main!$I$6-[59]Main!$I$5</f>
+        <f>+[61]Main!$I$6-[61]Main!$I$5</f>
         <v>-42129.569890000006</v>
       </c>
       <c r="H87" s="4">
@@ -14956,15 +15059,15 @@
         <v>45</v>
       </c>
       <c r="E90" s="4">
-        <f>+[60]Main!$H$2</f>
+        <f>+[62]Main!$H$2</f>
         <v>276.01</v>
       </c>
       <c r="F90" s="4">
-        <f>+[60]Main!$H$4</f>
+        <f>+[62]Main!$H$4</f>
         <v>69099.22577243</v>
       </c>
       <c r="G90" s="4">
-        <f>+[60]Main!$H$6-[60]Main!$H$5</f>
+        <f>+[62]Main!$H$6-[62]Main!$H$5</f>
         <v>-3259.3870999999999</v>
       </c>
       <c r="H90" s="4">
@@ -14990,15 +15093,15 @@
         <v>45</v>
       </c>
       <c r="E91" s="4">
-        <f>+[81]Main!$J$2</f>
+        <f>+[63]Main!$J$2</f>
         <v>53.86</v>
       </c>
       <c r="F91" s="4">
-        <f>+[81]Main!$J$4</f>
+        <f>+[63]Main!$J$4</f>
         <v>33365.192799999997</v>
       </c>
       <c r="G91" s="4">
-        <f>+[81]Main!$J$6-[81]Main!$J$5</f>
+        <f>+[63]Main!$J$6-[63]Main!$J$5</f>
         <v>-2373.2370000000001</v>
       </c>
       <c r="H91" s="4">
@@ -15100,20 +15203,20 @@
         <v>45</v>
       </c>
       <c r="E96" s="4">
-        <f>+[61]Main!$I$2</f>
-        <v>155.19999999999999</v>
+        <f>+[64]Main!$I$2</f>
+        <v>148.77000000000001</v>
       </c>
       <c r="F96" s="4">
-        <f>+[61]Main!$I$4</f>
-        <v>39886.399999999994</v>
+        <f>+[64]Main!$I$4</f>
+        <v>38233.89</v>
       </c>
       <c r="G96" s="4">
-        <f>+[61]Main!$I$6-[61]Main!$I$5</f>
+        <f>+[64]Main!$I$6-[64]Main!$I$5</f>
         <v>-364</v>
       </c>
       <c r="H96" s="4">
         <f>+F96+G96</f>
-        <v>39522.399999999994</v>
+        <v>37869.89</v>
       </c>
       <c r="I96" s="8" t="s">
         <v>431</v>
@@ -15232,15 +15335,15 @@
         <v>45</v>
       </c>
       <c r="E102" s="4">
-        <f>+[62]Main!$I$2</f>
+        <f>+[65]Main!$I$2</f>
         <v>28.82</v>
       </c>
       <c r="F102" s="4">
-        <f>+[62]Main!$I$4</f>
+        <f>+[65]Main!$I$4</f>
         <v>27027.330751519999</v>
       </c>
       <c r="G102" s="4">
-        <f>+[62]Main!$I$6-[62]Main!$I$5</f>
+        <f>+[65]Main!$I$6-[65]Main!$I$5</f>
         <v>6416</v>
       </c>
       <c r="H102" s="4">
@@ -15323,15 +15426,15 @@
         <v>45</v>
       </c>
       <c r="E106" s="4">
-        <f>+[63]Main!$H$2</f>
+        <f>+[66]Main!$H$2</f>
         <v>66.180000000000007</v>
       </c>
       <c r="F106" s="4">
-        <f>+[63]Main!$H$4</f>
+        <f>+[66]Main!$H$4</f>
         <v>30839.880000000005</v>
       </c>
       <c r="G106" s="4">
-        <f>+[63]Main!$H$6-[63]Main!$H$5</f>
+        <f>+[66]Main!$H$6-[66]Main!$H$5</f>
         <v>2527</v>
       </c>
       <c r="H106" s="4">
@@ -15597,7 +15700,7 @@
         <f t="shared" si="5"/>
         <v>117</v>
       </c>
-      <c r="B120" t="s">
+      <c r="B120" s="1" t="s">
         <v>257</v>
       </c>
       <c r="C120" t="s">
@@ -15606,10 +15709,25 @@
       <c r="D120" t="s">
         <v>45</v>
       </c>
-      <c r="E120" s="4"/>
-      <c r="F120" s="4"/>
-      <c r="G120" s="4"/>
-      <c r="H120" s="4"/>
+      <c r="E120" s="4">
+        <f>+[67]Main!$I$2</f>
+        <v>194.53</v>
+      </c>
+      <c r="F120" s="4">
+        <f>+[67]Main!$I$4</f>
+        <v>67601.194415930004</v>
+      </c>
+      <c r="G120" s="4">
+        <f>+[67]Main!$I$6-[67]Main!$I$5</f>
+        <v>-204.459</v>
+      </c>
+      <c r="H120" s="4">
+        <f>+F120+G120</f>
+        <v>67396.735415930001</v>
+      </c>
+      <c r="I120" s="8" t="s">
+        <v>711</v>
+      </c>
     </row>
     <row r="121" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A121" s="5">
@@ -15626,15 +15744,15 @@
         <v>45</v>
       </c>
       <c r="E121" s="4">
-        <f>+[64]Main!$L$3</f>
+        <f>+[68]Main!$L$3</f>
         <v>212.39</v>
       </c>
       <c r="F121" s="4">
-        <f>+[64]Main!$L$5</f>
+        <f>+[68]Main!$L$5</f>
         <v>37485.92299734</v>
       </c>
       <c r="G121" s="4">
-        <f>+[64]Main!$L$7-[64]Main!$L$6</f>
+        <f>+[68]Main!$L$7-[68]Main!$L$6</f>
         <v>2432.9</v>
       </c>
       <c r="H121" s="4">
@@ -15834,15 +15952,15 @@
         <v>278</v>
       </c>
       <c r="E131" s="4">
-        <f>+[86]Main!$J$2</f>
+        <f>+[69]Main!$J$2</f>
         <v>4.42</v>
       </c>
       <c r="F131" s="4">
-        <f>+[86]Main!$J$4*FX!C4</f>
+        <f>+[69]Main!$J$4*FX!C4</f>
         <v>25273.325527398003</v>
       </c>
       <c r="G131" s="4">
-        <f>+([86]Main!$J$6-[86]Main!$J$5)*FX!C4</f>
+        <f>+([69]Main!$J$6-[69]Main!$J$5)*FX!C4</f>
         <v>-2129.7600000000002</v>
       </c>
       <c r="H131" s="4">
@@ -16115,15 +16233,15 @@
         <v>45</v>
       </c>
       <c r="E145" s="4">
-        <f>+[65]Main!$J$2</f>
+        <f>+[70]Main!$J$2</f>
         <v>74.849999999999994</v>
       </c>
       <c r="F145" s="4">
-        <f>+[65]Main!$J$4</f>
+        <f>+[70]Main!$J$4</f>
         <v>66052.801730849998</v>
       </c>
       <c r="G145" s="4">
-        <f>+[65]Main!$J$6-[65]Main!$J$5</f>
+        <f>+[70]Main!$J$6-[70]Main!$J$5</f>
         <v>-4416</v>
       </c>
       <c r="H145" s="4">
@@ -16152,15 +16270,15 @@
         <v>45</v>
       </c>
       <c r="E146" s="4">
-        <f>+[66]Main!$I$2</f>
+        <f>+[71]Main!$I$2</f>
         <v>195.81</v>
       </c>
       <c r="F146" s="4">
-        <f>+[66]Main!$I$4</f>
+        <f>+[71]Main!$I$4</f>
         <v>25231.503659940001</v>
       </c>
       <c r="G146" s="4">
-        <f>+[66]Main!$I$6-[66]Main!$I$5</f>
+        <f>+[71]Main!$I$6-[71]Main!$I$5</f>
         <v>392</v>
       </c>
       <c r="H146" s="4">
@@ -16271,7 +16389,7 @@
         <f t="shared" si="6"/>
         <v>149</v>
       </c>
-      <c r="B152" t="s">
+      <c r="B152" s="1" t="s">
         <v>321</v>
       </c>
       <c r="C152" s="6" t="s">
@@ -16300,15 +16418,15 @@
         <v>45</v>
       </c>
       <c r="E153" s="4">
-        <f>+[67]Main!$I$2</f>
+        <f>+[72]Main!$I$2</f>
         <v>462.43</v>
       </c>
       <c r="F153" s="4">
-        <f>+[67]Main!$I$4</f>
+        <f>+[72]Main!$I$4</f>
         <v>17586.234171780001</v>
       </c>
       <c r="G153" s="4">
-        <f>+[67]Main!$I$6-[67]Main!$I$5</f>
+        <f>+[72]Main!$I$6-[72]Main!$I$5</f>
         <v>1000.3120000000001</v>
       </c>
       <c r="H153" s="4">
@@ -16337,15 +16455,15 @@
         <v>45</v>
       </c>
       <c r="E154" s="4">
-        <f>+[68]Main!$I$2</f>
+        <f>+[73]Main!$I$2</f>
         <v>10.34</v>
       </c>
       <c r="F154" s="4">
-        <f>+[68]Main!$I$4</f>
+        <f>+[73]Main!$I$4</f>
         <v>17540.372740000003</v>
       </c>
       <c r="G154" s="4">
-        <f>+[68]Main!$I$6-[68]Main!$I$5</f>
+        <f>+[73]Main!$I$6-[73]Main!$I$5</f>
         <v>267.65000000000009</v>
       </c>
       <c r="H154" s="4">
@@ -16763,7 +16881,7 @@
         <f t="shared" si="6"/>
         <v>173</v>
       </c>
-      <c r="B176" t="s">
+      <c r="B176" s="1" t="s">
         <v>371</v>
       </c>
       <c r="C176" t="s">
@@ -17286,15 +17404,15 @@
         <v>45</v>
       </c>
       <c r="E203" s="4">
-        <f>+[69]Main!$I$2</f>
+        <f>+[74]Main!$I$2</f>
         <v>165.35</v>
       </c>
       <c r="F203" s="4">
-        <f>+[69]Main!$I$4</f>
+        <f>+[74]Main!$I$4</f>
         <v>29912.534107149997</v>
       </c>
       <c r="G203" s="4">
-        <f>+[69]Main!$I$6-[69]Main!$I$5</f>
+        <f>+[74]Main!$I$6-[74]Main!$I$5</f>
         <v>-1840.8090000000002</v>
       </c>
       <c r="H203" s="4">
@@ -17320,15 +17438,15 @@
         <v>45</v>
       </c>
       <c r="E204" s="4">
-        <f>+[70]Main!$I$2</f>
+        <f>+[75]Main!$I$2</f>
         <v>295</v>
       </c>
       <c r="F204" s="4">
-        <f>+[70]Main!$I$4</f>
+        <f>+[75]Main!$I$4</f>
         <v>12975.44461</v>
       </c>
       <c r="G204" s="4">
-        <f>+[70]Main!$I$6-[70]Main!$I$5</f>
+        <f>+[75]Main!$I$6-[75]Main!$I$5</f>
         <v>-880.76300000000003</v>
       </c>
       <c r="H204" s="4">
@@ -18152,15 +18270,15 @@
         <v>301</v>
       </c>
       <c r="E247" s="4">
-        <f>+[71]Main!$I$2</f>
+        <f>+[76]Main!$I$2</f>
         <v>65.7</v>
       </c>
       <c r="F247" s="4">
-        <f>+[71]Main!$I$4</f>
+        <f>+[76]Main!$I$4</f>
         <v>7075.3846356000004</v>
       </c>
       <c r="G247" s="4">
-        <f>+[71]Main!$I$6-[71]Main!$I$5</f>
+        <f>+[76]Main!$I$6-[76]Main!$I$5</f>
         <v>-640.70899999999995</v>
       </c>
       <c r="H247" s="4">
@@ -19554,15 +19672,15 @@
         <v>45</v>
       </c>
       <c r="E320" s="4">
-        <f>+[72]Main!$I$3</f>
+        <f>+[77]Main!$I$3</f>
         <v>12.26</v>
       </c>
       <c r="F320" s="4">
-        <f>+[72]Main!$I$5</f>
+        <f>+[77]Main!$I$5</f>
         <v>2157.6645436399999</v>
       </c>
       <c r="G320" s="4">
-        <f>+[72]Main!$I$7-[72]Main!$I$6</f>
+        <f>+[77]Main!$I$7-[77]Main!$I$6</f>
         <v>280.74099999999999</v>
       </c>
       <c r="H320" s="4">
@@ -19588,15 +19706,15 @@
         <v>45</v>
       </c>
       <c r="E321" s="4">
-        <f>+[73]Main!$I$2</f>
+        <f>+[78]Main!$I$2</f>
         <v>7.36</v>
       </c>
       <c r="F321" s="4">
-        <f>+[73]Main!$I$4</f>
+        <f>+[78]Main!$I$4</f>
         <v>1581.06035488</v>
       </c>
       <c r="G321" s="4">
-        <f>+[73]Main!$I$6-[73]Main!$I$5</f>
+        <f>+[78]Main!$I$6-[78]Main!$I$5</f>
         <v>-73.627598000000006</v>
       </c>
       <c r="H321" s="4">
@@ -33558,7 +33676,7 @@
     </row>
     <row r="1093" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1093" s="5">
-        <f t="shared" ref="A1093:A1099" si="21">+A1092+1</f>
+        <f t="shared" ref="A1093:A1100" si="21">+A1092+1</f>
         <v>1090</v>
       </c>
       <c r="B1093" t="s">
@@ -33679,8 +33797,23 @@
         <v>45</v>
       </c>
     </row>
+    <row r="1100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1100" s="5">
+        <f t="shared" si="21"/>
+        <v>1097</v>
+      </c>
+      <c r="B1100" t="s">
+        <v>2710</v>
+      </c>
+      <c r="C1100" t="s">
+        <v>2711</v>
+      </c>
+      <c r="D1100" t="s">
+        <v>45</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="C4:C1099">
+  <conditionalFormatting sqref="C4:C1100">
     <cfRule type="duplicateValues" dxfId="1" priority="100"/>
     <cfRule type="duplicateValues" dxfId="0" priority="101"/>
   </conditionalFormatting>
@@ -33762,6 +33895,10 @@
     <hyperlink ref="B77" r:id="rId75" xr:uid="{FEB4F40A-21A1-4154-9B05-F59B8A06263C}"/>
     <hyperlink ref="B91" r:id="rId76" xr:uid="{0053453D-700B-44AA-BC1B-981AD992E1CC}"/>
     <hyperlink ref="B131" r:id="rId77" xr:uid="{646239C4-1DE0-47B0-8A7F-6EDCD4A7379E}"/>
+    <hyperlink ref="B152" r:id="rId78" xr:uid="{0C4F2B8B-E9BD-400F-85EB-B74291F1866B}"/>
+    <hyperlink ref="B176" r:id="rId79" xr:uid="{EE957A18-C1D3-4C3C-A662-B9CA7DC06F8D}"/>
+    <hyperlink ref="B120" r:id="rId80" xr:uid="{955F7B47-6997-4737-A3CE-BAEA5B36D5C3}"/>
+    <hyperlink ref="B75" r:id="rId81" xr:uid="{77B560CC-6503-4732-BA03-EBD96AB1C1E8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -33771,8 +33908,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64220020-6BD7-46F2-AABD-111B1D1A5DFE}">
   <dimension ref="A1:R60"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView topLeftCell="A40" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33853,15 +33990,15 @@
         <v>45</v>
       </c>
       <c r="E4">
-        <f>+[74]Main!$J$2</f>
+        <f>+[79]Main!$J$2</f>
         <v>333.79</v>
       </c>
       <c r="F4" s="4">
-        <f>+[74]Main!$J$4</f>
+        <f>+[79]Main!$J$4</f>
         <v>620107.49130901007</v>
       </c>
       <c r="G4" s="4">
-        <f>+[74]Main!$J$6-[74]Main!$J$5</f>
+        <f>+[79]Main!$J$6-[79]Main!$J$5</f>
         <v>3163</v>
       </c>
       <c r="H4" s="4">
@@ -33890,15 +34027,15 @@
         <v>45</v>
       </c>
       <c r="E5">
-        <f>+[75]Main!$I$2</f>
+        <f>+[80]Main!$I$2</f>
         <v>519.49</v>
       </c>
       <c r="F5" s="4">
-        <f>+[75]Main!$I$4</f>
+        <f>+[80]Main!$I$4</f>
         <v>473623.45178194001</v>
       </c>
       <c r="G5" s="4">
-        <f>+[75]Main!$I$6-[75]Main!$I$5</f>
+        <f>+[80]Main!$I$6-[80]Main!$I$5</f>
         <v>8962</v>
       </c>
       <c r="H5" s="4">
@@ -33961,15 +34098,15 @@
         <v>45</v>
       </c>
       <c r="E7">
-        <f>+[76]Main!$J$2</f>
+        <f>+[81]Main!$J$2</f>
         <v>494.32</v>
       </c>
       <c r="F7" s="4">
-        <f>+[76]Main!$J$4</f>
+        <f>+[81]Main!$J$4</f>
         <v>151607.94399999999</v>
       </c>
       <c r="G7" s="4">
-        <f>+[76]Main!$J$6-[76]Main!$J$5</f>
+        <f>+[81]Main!$J$6-[81]Main!$J$5</f>
         <v>9922</v>
       </c>
       <c r="H7" s="4">
@@ -34066,15 +34203,15 @@
         <v>45</v>
       </c>
       <c r="E10">
-        <f>+[77]Main!$I$2</f>
+        <f>+[82]Main!$I$2</f>
         <v>185.7</v>
       </c>
       <c r="F10" s="4">
-        <f>+[77]Main!$I$4</f>
+        <f>+[82]Main!$I$4</f>
         <v>106522.39852469999</v>
       </c>
       <c r="G10" s="4">
-        <f>+[77]Main!$I$6-[77]Main!$I$5</f>
+        <f>+[82]Main!$I$6-[82]Main!$I$5</f>
         <v>18881</v>
       </c>
       <c r="H10" s="4">
@@ -34100,15 +34237,15 @@
         <v>45</v>
       </c>
       <c r="E11">
-        <f>+[60]Main!$H$2</f>
+        <f>+[62]Main!$H$2</f>
         <v>276.01</v>
       </c>
       <c r="F11" s="4">
-        <f>+[60]Main!$H$4</f>
+        <f>+[62]Main!$H$4</f>
         <v>69099.22577243</v>
       </c>
       <c r="G11" s="4">
-        <f>+[60]Main!$H$6-[60]Main!$H$5</f>
+        <f>+[62]Main!$H$6-[62]Main!$H$5</f>
         <v>-3259.3870999999999</v>
       </c>
       <c r="H11" s="4">
@@ -34137,15 +34274,15 @@
         <v>45</v>
       </c>
       <c r="E12">
-        <f>+[65]Main!$J$2</f>
+        <f>+[70]Main!$J$2</f>
         <v>74.849999999999994</v>
       </c>
       <c r="F12" s="4">
-        <f>+[65]Main!$J$4</f>
+        <f>+[70]Main!$J$4</f>
         <v>66052.801730849998</v>
       </c>
       <c r="G12" s="4">
-        <f>+[65]Main!$J$6-[65]Main!$J$5</f>
+        <f>+[70]Main!$J$6-[70]Main!$J$5</f>
         <v>-4416</v>
       </c>
       <c r="H12" s="4">
@@ -34211,15 +34348,15 @@
         <v>45</v>
       </c>
       <c r="E14">
-        <f>+[78]Main!$I$2</f>
+        <f>+[83]Main!$I$2</f>
         <v>86.25</v>
       </c>
       <c r="F14" s="4">
-        <f>+[78]Main!$I$4</f>
+        <f>+[83]Main!$I$4</f>
         <v>49517.989724999999</v>
       </c>
       <c r="G14" s="4">
-        <f>+[78]Main!$I$6-[78]Main!$I$5</f>
+        <f>+[83]Main!$I$6-[83]Main!$I$5</f>
         <v>8435</v>
       </c>
       <c r="H14" s="4">
@@ -34245,15 +34382,15 @@
         <v>45</v>
       </c>
       <c r="E15">
-        <f>+[79]Main!$I$2</f>
+        <f>+[84]Main!$I$2</f>
         <v>220.4</v>
       </c>
       <c r="F15" s="4">
-        <f>+[79]Main!$I$4</f>
+        <f>+[84]Main!$I$4</f>
         <v>45785.921346000003</v>
       </c>
       <c r="G15" s="4">
-        <f>+[79]Main!$I$6-[79]Main!$I$5</f>
+        <f>+[84]Main!$I$6-[84]Main!$I$5</f>
         <v>-1083.731</v>
       </c>
       <c r="H15" s="4">
@@ -34282,15 +34419,15 @@
         <v>45</v>
       </c>
       <c r="E16">
-        <f>+[80]Main!$J$2</f>
+        <f>+[85]Main!$J$2</f>
         <v>544.77</v>
       </c>
       <c r="F16" s="4">
-        <f>+[80]Main!$J$4</f>
+        <f>+[85]Main!$J$4</f>
         <v>42149.669331149998</v>
       </c>
       <c r="G16" s="4">
-        <f>+[80]Main!$J$6-[80]Main!$J$5</f>
+        <f>+[85]Main!$J$6-[85]Main!$J$5</f>
         <v>4186.1880000000001</v>
       </c>
       <c r="H16" s="4">
@@ -34316,15 +34453,15 @@
         <v>45</v>
       </c>
       <c r="E17">
-        <f>+[81]Main!$J$2</f>
+        <f>+[63]Main!$J$2</f>
         <v>53.86</v>
       </c>
       <c r="F17" s="4">
-        <f>+[81]Main!$J$4</f>
+        <f>+[63]Main!$J$4</f>
         <v>33365.192799999997</v>
       </c>
       <c r="G17" s="4">
-        <f>+[81]Main!$J$6-[81]Main!$J$5</f>
+        <f>+[63]Main!$J$6-[63]Main!$J$5</f>
         <v>-2373.2370000000001</v>
       </c>
       <c r="H17" s="4">
@@ -34389,15 +34526,15 @@
         <v>45</v>
       </c>
       <c r="E20">
-        <f>+[82]Main!$J$2</f>
+        <f>+[86]Main!$J$2</f>
         <v>208.42</v>
       </c>
       <c r="F20" s="4">
-        <f>+[82]Main!$J$4</f>
+        <f>+[86]Main!$J$4</f>
         <v>22709.220190600001</v>
       </c>
       <c r="G20" s="4">
-        <f>+[82]Main!$J$6-[82]Main!$J$5</f>
+        <f>+[86]Main!$J$6-[86]Main!$J$5</f>
         <v>-3488</v>
       </c>
       <c r="H20" s="4">
@@ -34459,15 +34596,15 @@
         <v>45</v>
       </c>
       <c r="E23">
-        <f>+[83]Main!$I$2</f>
+        <f>+[58]Main!$I$2</f>
         <v>1790.2</v>
       </c>
       <c r="F23" s="4">
-        <f>+[83]Main!$I$4</f>
+        <f>+[58]Main!$I$4</f>
         <v>43576.493437999998</v>
       </c>
       <c r="G23" s="4">
-        <f>+[83]Main!$I$6-[83]Main!$I$5</f>
+        <f>+[58]Main!$I$6-[58]Main!$I$5</f>
         <v>2381.538</v>
       </c>
       <c r="H23" s="4">
@@ -34961,15 +35098,15 @@
         <v>45</v>
       </c>
       <c r="E50">
-        <f>+[84]Main!$K$2</f>
+        <f>+[87]Main!$K$2</f>
         <v>39.04</v>
       </c>
       <c r="F50" s="4">
-        <f>+[84]Main!$K$4</f>
+        <f>+[87]Main!$K$4</f>
         <v>14227.016843519999</v>
       </c>
       <c r="G50" s="4">
-        <f>+[84]Main!$K$6-[84]Main!$K$5</f>
+        <f>+[87]Main!$K$6-[87]Main!$K$5</f>
         <v>-706.58600000000001</v>
       </c>
       <c r="H50" s="4">
@@ -35016,15 +35153,15 @@
         <v>45</v>
       </c>
       <c r="E52">
-        <f>+[85]Main!$H$2</f>
+        <f>+[88]Main!$H$2</f>
         <v>41.2</v>
       </c>
       <c r="F52" s="4">
-        <f>+[85]Main!$H$4</f>
+        <f>+[88]Main!$H$4</f>
         <v>6352.9674880000002</v>
       </c>
       <c r="G52" s="4">
-        <f>+[85]Main!$H$6-[85]Main!$H$5</f>
+        <f>+[88]Main!$H$6-[88]Main!$H$5</f>
         <v>1129.5909999999999</v>
       </c>
       <c r="H52" s="4">
@@ -35071,15 +35208,15 @@
         <v>301</v>
       </c>
       <c r="E54">
-        <f>+[71]Main!$I$2</f>
+        <f>+[76]Main!$I$2</f>
         <v>65.7</v>
       </c>
       <c r="F54" s="4">
-        <f>+[71]Main!$I$4</f>
+        <f>+[76]Main!$I$4</f>
         <v>7075.3846356000004</v>
       </c>
       <c r="G54" s="4">
-        <f>+[71]Main!$I$6-[71]Main!$I$5</f>
+        <f>+[76]Main!$I$6-[76]Main!$I$5</f>
         <v>-640.70899999999995</v>
       </c>
       <c r="H54" s="4">

--- a/Tech.xlsx
+++ b/Tech.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\MetaModels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E66368C1-70C2-4CDC-AAF9-306FEF2761F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82A5B505-3230-43CC-A472-63C34AA29026}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21060" activeTab="1" xr2:uid="{99A4F583-0E14-4765-AB16-7E206A98D14D}"/>
+    <workbookView xWindow="225" yWindow="5325" windowWidth="38175" windowHeight="15240" xr2:uid="{99A4F583-0E14-4765-AB16-7E206A98D14D}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -10857,22 +10857,22 @@
       <sheetData sheetId="0">
         <row r="2">
           <cell r="I2">
-            <v>148.77000000000001</v>
+            <v>173.3</v>
           </cell>
         </row>
         <row r="4">
           <cell r="I4">
-            <v>38233.89</v>
+            <v>43360.925609900005</v>
           </cell>
         </row>
         <row r="5">
           <cell r="I5">
-            <v>2248</v>
+            <v>1630</v>
           </cell>
         </row>
         <row r="6">
           <cell r="I6">
-            <v>1884</v>
+            <v>400</v>
           </cell>
         </row>
       </sheetData>
@@ -11545,7 +11545,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -12260,11 +12260,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DC46DA1-10F2-4B4F-9A0F-3213D26202A4}">
   <dimension ref="A1:T1101"/>
   <sheetViews>
-    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C185" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I204" sqref="I204"/>
+      <selection pane="bottomRight" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15211,19 +15211,19 @@
       </c>
       <c r="E96" s="4">
         <f>+[64]Main!$I$2</f>
-        <v>148.77000000000001</v>
+        <v>173.3</v>
       </c>
       <c r="F96" s="4">
         <f>+[64]Main!$I$4</f>
-        <v>38233.89</v>
+        <v>43360.925609900005</v>
       </c>
       <c r="G96" s="4">
         <f>+[64]Main!$I$6-[64]Main!$I$5</f>
-        <v>-364</v>
+        <v>-1230</v>
       </c>
       <c r="H96" s="4">
         <f>+F96+G96</f>
-        <v>37869.89</v>
+        <v>42130.925609900005</v>
       </c>
       <c r="I96" s="8" t="s">
         <v>431</v>
@@ -33934,7 +33934,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64220020-6BD7-46F2-AABD-111B1D1A5DFE}">
   <dimension ref="A1:R61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+    <sheetView topLeftCell="A37" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
       <selection activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>

--- a/Tech.xlsx
+++ b/Tech.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\MetaModels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82A5B505-3230-43CC-A472-63C34AA29026}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{732D49E6-E6C1-434A-9191-A5AF285151E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="225" yWindow="5325" windowWidth="38175" windowHeight="15240" xr2:uid="{99A4F583-0E14-4765-AB16-7E206A98D14D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21060" xr2:uid="{99A4F583-0E14-4765-AB16-7E206A98D14D}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -133,7 +133,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4398" uniqueCount="2715">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4398" uniqueCount="2716">
   <si>
     <t>Name</t>
   </si>
@@ -8278,6 +8278,9 @@
   </si>
   <si>
     <t>Bullish</t>
+  </si>
+  <si>
+    <t>Q425</t>
   </si>
 </sst>
 </file>
@@ -8733,30 +8736,32 @@
     </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="Main"/>
+      <sheetName val="Model"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="2">
-          <cell r="G2">
-            <v>116.7</v>
+          <cell r="J2">
+            <v>115.7</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="G5">
-            <v>2038847.0279999999</v>
+          <cell r="J5">
+            <v>2043671.578</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="G6">
-            <v>399733</v>
+          <cell r="J6">
+            <v>374313</v>
           </cell>
         </row>
         <row r="7">
-          <cell r="G7">
-            <v>231528</v>
+          <cell r="J7">
+            <v>194869</v>
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="1" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -11013,22 +11018,22 @@
       <sheetData sheetId="0">
         <row r="3">
           <cell r="L3">
-            <v>212.39</v>
+            <v>228.01</v>
           </cell>
         </row>
         <row r="5">
           <cell r="L5">
-            <v>37485.92299734</v>
+            <v>42061.053038120001</v>
           </cell>
         </row>
         <row r="6">
           <cell r="L6">
-            <v>1225</v>
+            <v>2035.1</v>
           </cell>
         </row>
         <row r="7">
           <cell r="L7">
-            <v>3657.9</v>
+            <v>3065.1</v>
           </cell>
         </row>
       </sheetData>
@@ -11545,7 +11550,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -12264,7 +12269,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B11" sqref="B11"/>
+      <selection pane="bottomRight" activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12917,23 +12922,26 @@
         <v>771</v>
       </c>
       <c r="E18" s="4">
-        <f>+[15]Main!$G$2</f>
-        <v>116.7</v>
+        <f>+[15]Main!$J$2</f>
+        <v>115.7</v>
       </c>
       <c r="F18" s="4">
-        <f>+[15]Main!$G$5*FX!C3</f>
-        <v>285438.58392</v>
+        <f>+[15]Main!$J$5*FX!C3</f>
+        <v>286114.02092000004</v>
       </c>
       <c r="G18" s="4">
-        <f>+([15]Main!$G$7-[15]Main!$G$6)*FX!C3</f>
-        <v>-23548.7</v>
+        <f>+([15]Main!$J$7-[15]Main!$J$6)*FX!C3</f>
+        <v>-25122.160000000003</v>
       </c>
       <c r="H18" s="4">
         <f>F18+G18</f>
-        <v>261889.88391999999</v>
+        <v>260991.86092000004</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>49</v>
+        <v>2715</v>
+      </c>
+      <c r="J18" s="7">
+        <v>45898</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
@@ -15752,19 +15760,19 @@
       </c>
       <c r="E121" s="4">
         <f>+[68]Main!$L$3</f>
-        <v>212.39</v>
+        <v>228.01</v>
       </c>
       <c r="F121" s="4">
         <f>+[68]Main!$L$5</f>
-        <v>37485.92299734</v>
+        <v>42061.053038120001</v>
       </c>
       <c r="G121" s="4">
         <f>+[68]Main!$L$7-[68]Main!$L$6</f>
-        <v>2432.9</v>
+        <v>1030</v>
       </c>
       <c r="H121" s="4">
         <f>+F121+G121</f>
-        <v>39918.822997340001</v>
+        <v>43091.053038120001</v>
       </c>
       <c r="I121" s="8" t="s">
         <v>429</v>

--- a/Tech.xlsx
+++ b/Tech.xlsx
@@ -8,22 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\MetaModels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{732D49E6-E6C1-434A-9191-A5AF285151E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCD04CF0-C52A-4803-94F6-4B0551FFE3E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21060" xr2:uid="{99A4F583-0E14-4765-AB16-7E206A98D14D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21060" activeTab="4" xr2:uid="{99A4F583-0E14-4765-AB16-7E206A98D14D}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
-    <sheet name="Fintech" sheetId="3" r:id="rId2"/>
-    <sheet name="E-Commerce" sheetId="7" r:id="rId3"/>
-    <sheet name="Semiconductors" sheetId="4" r:id="rId4"/>
-    <sheet name="Quantum" sheetId="8" r:id="rId5"/>
-    <sheet name="Enterprise Cloud" sheetId="5" r:id="rId6"/>
-    <sheet name="Social" sheetId="6" r:id="rId7"/>
-    <sheet name="FX" sheetId="2" r:id="rId8"/>
+    <sheet name="Telecom" sheetId="9" r:id="rId2"/>
+    <sheet name="Fintech" sheetId="3" r:id="rId3"/>
+    <sheet name="E-Commerce" sheetId="7" r:id="rId4"/>
+    <sheet name="Semiconductors" sheetId="4" r:id="rId5"/>
+    <sheet name="Quantum" sheetId="8" r:id="rId6"/>
+    <sheet name="Enterprise Cloud" sheetId="5" r:id="rId7"/>
+    <sheet name="Social" sheetId="6" r:id="rId8"/>
+    <sheet name="FX" sheetId="2" r:id="rId9"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId9"/>
     <externalReference r:id="rId10"/>
     <externalReference r:id="rId11"/>
     <externalReference r:id="rId12"/>
@@ -111,6 +111,7 @@
     <externalReference r:id="rId94"/>
     <externalReference r:id="rId95"/>
     <externalReference r:id="rId96"/>
+    <externalReference r:id="rId97"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -133,7 +134,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4398" uniqueCount="2716">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5037" uniqueCount="3149">
   <si>
     <t>Name</t>
   </si>
@@ -8281,6 +8282,1305 @@
   </si>
   <si>
     <t>Q425</t>
+  </si>
+  <si>
+    <t>T-Mobile US</t>
+  </si>
+  <si>
+    <t>TMUS</t>
+  </si>
+  <si>
+    <t>China Mobile</t>
+  </si>
+  <si>
+    <t>0941.HK</t>
+  </si>
+  <si>
+    <t>AT&amp;T</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>Verizon</t>
+  </si>
+  <si>
+    <t>VZ</t>
+  </si>
+  <si>
+    <t>Deutsche Telekom</t>
+  </si>
+  <si>
+    <t>DTE.DE</t>
+  </si>
+  <si>
+    <t>SoftBank</t>
+  </si>
+  <si>
+    <t>9984.T</t>
+  </si>
+  <si>
+    <t>Bharti Airtel</t>
+  </si>
+  <si>
+    <t>BHARTIARTL.NS</t>
+  </si>
+  <si>
+    <t>Comcast</t>
+  </si>
+  <si>
+    <t>CMCSA</t>
+  </si>
+  <si>
+    <t>American Tower</t>
+  </si>
+  <si>
+    <t>AMT</t>
+  </si>
+  <si>
+    <t>China Telecom</t>
+  </si>
+  <si>
+    <t>0728.HK</t>
+  </si>
+  <si>
+    <t>KDDI</t>
+  </si>
+  <si>
+    <t>9433.T</t>
+  </si>
+  <si>
+    <t>America Movil</t>
+  </si>
+  <si>
+    <t>AMX</t>
+  </si>
+  <si>
+    <t>Saudi Telecom Company</t>
+  </si>
+  <si>
+    <t>7010.SR</t>
+  </si>
+  <si>
+    <t>Singtel</t>
+  </si>
+  <si>
+    <t>Z74.SI</t>
+  </si>
+  <si>
+    <t>Crown Castle</t>
+  </si>
+  <si>
+    <t>CCI</t>
+  </si>
+  <si>
+    <t>Orange</t>
+  </si>
+  <si>
+    <t>ORA.PA</t>
+  </si>
+  <si>
+    <t>Emirates Telecom (Etisalat Group)</t>
+  </si>
+  <si>
+    <t>EAND.AE</t>
+  </si>
+  <si>
+    <t>China Unicom</t>
+  </si>
+  <si>
+    <t>0762.HK</t>
+  </si>
+  <si>
+    <t>Charter Communications</t>
+  </si>
+  <si>
+    <t>CHTR</t>
+  </si>
+  <si>
+    <t>Swisscom</t>
+  </si>
+  <si>
+    <t>SCMN.SW</t>
+  </si>
+  <si>
+    <t>Telstra</t>
+  </si>
+  <si>
+    <t>TLS.AX</t>
+  </si>
+  <si>
+    <t>Chunghwa Telecom</t>
+  </si>
+  <si>
+    <t>CHT</t>
+  </si>
+  <si>
+    <t>TelefÃ³nica</t>
+  </si>
+  <si>
+    <t>TEF</t>
+  </si>
+  <si>
+    <t>ZTE</t>
+  </si>
+  <si>
+    <t>000063.SZ</t>
+  </si>
+  <si>
+    <t>Vodafone</t>
+  </si>
+  <si>
+    <t>VOD</t>
+  </si>
+  <si>
+    <t>BT Group</t>
+  </si>
+  <si>
+    <t>BT-A.L</t>
+  </si>
+  <si>
+    <t>Advanced Info Service (AIS)</t>
+  </si>
+  <si>
+    <t>ADVANC.BK</t>
+  </si>
+  <si>
+    <t>China Tower</t>
+  </si>
+  <si>
+    <t>0788.HK</t>
+  </si>
+  <si>
+    <t>CK Hutchison Holdings</t>
+  </si>
+  <si>
+    <t>0001.HK</t>
+  </si>
+  <si>
+    <t>Telus</t>
+  </si>
+  <si>
+    <t>TU</t>
+  </si>
+  <si>
+    <t>Cellnex Telecom</t>
+  </si>
+  <si>
+    <t>CLNX.MC</t>
+  </si>
+  <si>
+    <t>SBA Communications</t>
+  </si>
+  <si>
+    <t>SBAC</t>
+  </si>
+  <si>
+    <t>BCE</t>
+  </si>
+  <si>
+    <t>Telenor</t>
+  </si>
+  <si>
+    <t>TEL.OL</t>
+  </si>
+  <si>
+    <t>Telefonica Brasil</t>
+  </si>
+  <si>
+    <t>VIV</t>
+  </si>
+  <si>
+    <t>Telkom Indonesia</t>
+  </si>
+  <si>
+    <t>TLK</t>
+  </si>
+  <si>
+    <t>Rogers Communication</t>
+  </si>
+  <si>
+    <t>RCI</t>
+  </si>
+  <si>
+    <t>KPN</t>
+  </si>
+  <si>
+    <t>KPN.AS</t>
+  </si>
+  <si>
+    <t>AST SpaceMobile</t>
+  </si>
+  <si>
+    <t>Vodacom</t>
+  </si>
+  <si>
+    <t>VOD.JO</t>
+  </si>
+  <si>
+    <t>MTN Group</t>
+  </si>
+  <si>
+    <t>MTN.JO</t>
+  </si>
+  <si>
+    <t>Telia Company</t>
+  </si>
+  <si>
+    <t>TELIA.ST</t>
+  </si>
+  <si>
+    <t>China Satellite Communications</t>
+  </si>
+  <si>
+    <t>601698.SS</t>
+  </si>
+  <si>
+    <t>Etihad Etisalat (Mobily)</t>
+  </si>
+  <si>
+    <t>7020.SR</t>
+  </si>
+  <si>
+    <t>Emirates Integrated Telecommunications Company</t>
+  </si>
+  <si>
+    <t>DU.AE</t>
+  </si>
+  <si>
+    <t>Ciena</t>
+  </si>
+  <si>
+    <t>CIEN</t>
+  </si>
+  <si>
+    <t>True Corporation</t>
+  </si>
+  <si>
+    <t>TRUE.BK</t>
+  </si>
+  <si>
+    <t>Tele2</t>
+  </si>
+  <si>
+    <t>TEL2-B.ST</t>
+  </si>
+  <si>
+    <t>Zegona Communications</t>
+  </si>
+  <si>
+    <t>ZEG.L</t>
+  </si>
+  <si>
+    <t>Telecom Italia</t>
+  </si>
+  <si>
+    <t>TIT.MI</t>
+  </si>
+  <si>
+    <t>Ooredoo Qatar</t>
+  </si>
+  <si>
+    <t>ORDS.QA</t>
+  </si>
+  <si>
+    <t>Hong Kong Telecom</t>
+  </si>
+  <si>
+    <t>6823.HK</t>
+  </si>
+  <si>
+    <t>INWIT</t>
+  </si>
+  <si>
+    <t>INW.MI</t>
+  </si>
+  <si>
+    <t>Airtel Africa</t>
+  </si>
+  <si>
+    <t>AAF.L</t>
+  </si>
+  <si>
+    <t>Indus Towers</t>
+  </si>
+  <si>
+    <t>INDUSTOWER.NS</t>
+  </si>
+  <si>
+    <t>Bharti Hexacom</t>
+  </si>
+  <si>
+    <t>BHARTIHEXA.NS</t>
+  </si>
+  <si>
+    <t>Taiwan Mobile</t>
+  </si>
+  <si>
+    <t>3045.TW</t>
+  </si>
+  <si>
+    <t>Celcomdigi</t>
+  </si>
+  <si>
+    <t>6947.KL</t>
+  </si>
+  <si>
+    <t>Ooredoo</t>
+  </si>
+  <si>
+    <t>ORDS.AE</t>
+  </si>
+  <si>
+    <t>TIM S.A.</t>
+  </si>
+  <si>
+    <t>TIMB</t>
+  </si>
+  <si>
+    <t>KT Corporation</t>
+  </si>
+  <si>
+    <t>KT</t>
+  </si>
+  <si>
+    <t>Far EasTone</t>
+  </si>
+  <si>
+    <t>4904.TW</t>
+  </si>
+  <si>
+    <t>Frontier Communications</t>
+  </si>
+  <si>
+    <t>FYBR</t>
+  </si>
+  <si>
+    <t>Vodafone Idea</t>
+  </si>
+  <si>
+    <t>IDEA.NS</t>
+  </si>
+  <si>
+    <t>Elisa</t>
+  </si>
+  <si>
+    <t>ELISA.HE</t>
+  </si>
+  <si>
+    <t>SK Telecom</t>
+  </si>
+  <si>
+    <t>SKM</t>
+  </si>
+  <si>
+    <t>Indoritel</t>
+  </si>
+  <si>
+    <t>DNET.JK</t>
+  </si>
+  <si>
+    <t>EchoStar</t>
+  </si>
+  <si>
+    <t>SATS</t>
+  </si>
+  <si>
+    <t>Sirius XM</t>
+  </si>
+  <si>
+    <t>SIRI</t>
+  </si>
+  <si>
+    <t>Millicom</t>
+  </si>
+  <si>
+    <t>TIGO</t>
+  </si>
+  <si>
+    <t>OTE Group</t>
+  </si>
+  <si>
+    <t>OTE.F</t>
+  </si>
+  <si>
+    <t>Zain (Mobile Telecommunications Company)</t>
+  </si>
+  <si>
+    <t>ZAIN.KW</t>
+  </si>
+  <si>
+    <t>A1 Telekom Austria</t>
+  </si>
+  <si>
+    <t>TA1.F</t>
+  </si>
+  <si>
+    <t>SK Group</t>
+  </si>
+  <si>
+    <t>034730.KS</t>
+  </si>
+  <si>
+    <t>InterDigital</t>
+  </si>
+  <si>
+    <t>Maxis Berhad</t>
+  </si>
+  <si>
+    <t>6012.KL</t>
+  </si>
+  <si>
+    <t>Quebecor</t>
+  </si>
+  <si>
+    <t>QBR-B.TO</t>
+  </si>
+  <si>
+    <t>U.S. Cellular</t>
+  </si>
+  <si>
+    <t>USM</t>
+  </si>
+  <si>
+    <t>Telekom Malaysia</t>
+  </si>
+  <si>
+    <t>4863.KL</t>
+  </si>
+  <si>
+    <t>TPG Telecom</t>
+  </si>
+  <si>
+    <t>TPG.AX</t>
+  </si>
+  <si>
+    <t>Globe Telecom, Inc.</t>
+  </si>
+  <si>
+    <t>GTMEY</t>
+  </si>
+  <si>
+    <t>Axiata Group</t>
+  </si>
+  <si>
+    <t>6888.KL</t>
+  </si>
+  <si>
+    <t>Mobile TeleSystems</t>
+  </si>
+  <si>
+    <t>MTSS.ME</t>
+  </si>
+  <si>
+    <t>PCCW</t>
+  </si>
+  <si>
+    <t>0008.HK</t>
+  </si>
+  <si>
+    <t>Turkcell</t>
+  </si>
+  <si>
+    <t>TKC</t>
+  </si>
+  <si>
+    <t>Tata Communications</t>
+  </si>
+  <si>
+    <t>TATACOMM.NS</t>
+  </si>
+  <si>
+    <t>Altius Telecom Infrastructure Trust</t>
+  </si>
+  <si>
+    <t>ALTIUSINVIT.BO</t>
+  </si>
+  <si>
+    <t>Elang Mahkota Teknologi</t>
+  </si>
+  <si>
+    <t>EMTK.JK</t>
+  </si>
+  <si>
+    <t>TÃ¼rk Telekom</t>
+  </si>
+  <si>
+    <t>TTKOM.IS</t>
+  </si>
+  <si>
+    <t>Bezeq</t>
+  </si>
+  <si>
+    <t>BEZQ.TA</t>
+  </si>
+  <si>
+    <t>PLDT</t>
+  </si>
+  <si>
+    <t>PHI</t>
+  </si>
+  <si>
+    <t>Telephone and Data Systems</t>
+  </si>
+  <si>
+    <t>TDS</t>
+  </si>
+  <si>
+    <t>VEON</t>
+  </si>
+  <si>
+    <t>Telecom Argentina</t>
+  </si>
+  <si>
+    <t>TEO</t>
+  </si>
+  <si>
+    <t>Indosat</t>
+  </si>
+  <si>
+    <t>ISAT.JK</t>
+  </si>
+  <si>
+    <t>Sunrise Communications AG</t>
+  </si>
+  <si>
+    <t>SNRE</t>
+  </si>
+  <si>
+    <t>1&amp;1</t>
+  </si>
+  <si>
+    <t>1U1.DE</t>
+  </si>
+  <si>
+    <t>Liberty Global</t>
+  </si>
+  <si>
+    <t>LBTYB</t>
+  </si>
+  <si>
+    <t>Freenet</t>
+  </si>
+  <si>
+    <t>FNTN.F</t>
+  </si>
+  <si>
+    <t>ViaSat</t>
+  </si>
+  <si>
+    <t>VSAT</t>
+  </si>
+  <si>
+    <t>Crane NXT</t>
+  </si>
+  <si>
+    <t>CXT</t>
+  </si>
+  <si>
+    <t>Globalstar</t>
+  </si>
+  <si>
+    <t>GSAT</t>
+  </si>
+  <si>
+    <t>Orange Polska</t>
+  </si>
+  <si>
+    <t>OPL.WA</t>
+  </si>
+  <si>
+    <t>XL Axiata</t>
+  </si>
+  <si>
+    <t>EXCL.JK</t>
+  </si>
+  <si>
+    <t>Vodafone Qatar</t>
+  </si>
+  <si>
+    <t>VFQS.QA</t>
+  </si>
+  <si>
+    <t>SES S.A.</t>
+  </si>
+  <si>
+    <t>SESG.PA</t>
+  </si>
+  <si>
+    <t>Proximus</t>
+  </si>
+  <si>
+    <t>PROX.VI</t>
+  </si>
+  <si>
+    <t>NetLink Trust</t>
+  </si>
+  <si>
+    <t>CJLU.SI</t>
+  </si>
+  <si>
+    <t>Spark New Zealand</t>
+  </si>
+  <si>
+    <t>NZTCF</t>
+  </si>
+  <si>
+    <t>Tuas Limited</t>
+  </si>
+  <si>
+    <t>TUA.AX</t>
+  </si>
+  <si>
+    <t>Sinch</t>
+  </si>
+  <si>
+    <t>SINCH.ST</t>
+  </si>
+  <si>
+    <t>Tower Bersama Infrastructure</t>
+  </si>
+  <si>
+    <t>TBIG.JK</t>
+  </si>
+  <si>
+    <t>Iridium Communications</t>
+  </si>
+  <si>
+    <t>IRDM</t>
+  </si>
+  <si>
+    <t>Zain Saudi Arabia</t>
+  </si>
+  <si>
+    <t>7030.SR</t>
+  </si>
+  <si>
+    <t>Sarana Menara Nusantara</t>
+  </si>
+  <si>
+    <t>TOWR.JK</t>
+  </si>
+  <si>
+    <t>Chorus</t>
+  </si>
+  <si>
+    <t>CNU.NZ</t>
+  </si>
+  <si>
+    <t>Megacable Holdings</t>
+  </si>
+  <si>
+    <t>MEGACPO.MX</t>
+  </si>
+  <si>
+    <t>NOS</t>
+  </si>
+  <si>
+    <t>NOS.LS</t>
+  </si>
+  <si>
+    <t>IHS Towers</t>
+  </si>
+  <si>
+    <t>IHS</t>
+  </si>
+  <si>
+    <t>Cyfrowy Polsat</t>
+  </si>
+  <si>
+    <t>CPS.WA</t>
+  </si>
+  <si>
+    <t>Batelco (Bahrain Telecommunication Company)</t>
+  </si>
+  <si>
+    <t>BEYON.BH</t>
+  </si>
+  <si>
+    <t>Helios Towers</t>
+  </si>
+  <si>
+    <t>HTWS.L</t>
+  </si>
+  <si>
+    <t>National Mobile Telecommunications Company</t>
+  </si>
+  <si>
+    <t>OOREDOO.KW</t>
+  </si>
+  <si>
+    <t>Omantel (Oman Telecom)</t>
+  </si>
+  <si>
+    <t>OTEL.OM</t>
+  </si>
+  <si>
+    <t>Cogeco</t>
+  </si>
+  <si>
+    <t>CCA.TO</t>
+  </si>
+  <si>
+    <t>Kuwait Telecommunications Company</t>
+  </si>
+  <si>
+    <t>STC.KW</t>
+  </si>
+  <si>
+    <t>Cogent Communications</t>
+  </si>
+  <si>
+    <t>CCOI</t>
+  </si>
+  <si>
+    <t>Partner Communications</t>
+  </si>
+  <si>
+    <t>PTNR.TA</t>
+  </si>
+  <si>
+    <t>Eutelsat</t>
+  </si>
+  <si>
+    <t>ETL.PA</t>
+  </si>
+  <si>
+    <t>Liberty Latin America</t>
+  </si>
+  <si>
+    <t>LILA</t>
+  </si>
+  <si>
+    <t>IDT Corporation</t>
+  </si>
+  <si>
+    <t>IDT</t>
+  </si>
+  <si>
+    <t>UNITI</t>
+  </si>
+  <si>
+    <t>UNIT</t>
+  </si>
+  <si>
+    <t>Cellcom Israel</t>
+  </si>
+  <si>
+    <t>CEL.TA</t>
+  </si>
+  <si>
+    <t>Gogo Inflight Internet</t>
+  </si>
+  <si>
+    <t>GOGO</t>
+  </si>
+  <si>
+    <t>Telkom SA</t>
+  </si>
+  <si>
+    <t>TKG.JO</t>
+  </si>
+  <si>
+    <t>Al Yah Satellite Communications Company</t>
+  </si>
+  <si>
+    <t>YAHSAT.AE</t>
+  </si>
+  <si>
+    <t>Gamma Communications</t>
+  </si>
+  <si>
+    <t>GAMA.L</t>
+  </si>
+  <si>
+    <t>Tata Teleservices</t>
+  </si>
+  <si>
+    <t>TTML.NS</t>
+  </si>
+  <si>
+    <t>Adtran Networks</t>
+  </si>
+  <si>
+    <t>ADV.DE</t>
+  </si>
+  <si>
+    <t>CAMGSM Plc. (Cellcard)</t>
+  </si>
+  <si>
+    <t>CGSM.KH</t>
+  </si>
+  <si>
+    <t>Telia Lietuva</t>
+  </si>
+  <si>
+    <t>ZWS.F</t>
+  </si>
+  <si>
+    <t>Altice USA</t>
+  </si>
+  <si>
+    <t>ATUS</t>
+  </si>
+  <si>
+    <t>Sinclair Broadcast</t>
+  </si>
+  <si>
+    <t>SBGI</t>
+  </si>
+  <si>
+    <t>Aussie Broadband Limited</t>
+  </si>
+  <si>
+    <t>ABB.AX</t>
+  </si>
+  <si>
+    <t>Superloop Limited</t>
+  </si>
+  <si>
+    <t>SLC.AX</t>
+  </si>
+  <si>
+    <t>EuroTeleSites</t>
+  </si>
+  <si>
+    <t>ETS.VI</t>
+  </si>
+  <si>
+    <t>GO (Etihad Atheeb Telecommunication Company)</t>
+  </si>
+  <si>
+    <t>7040.SR</t>
+  </si>
+  <si>
+    <t>Cable One</t>
+  </si>
+  <si>
+    <t>CABO</t>
+  </si>
+  <si>
+    <t>LINK Mobility Group</t>
+  </si>
+  <si>
+    <t>LINK.OL</t>
+  </si>
+  <si>
+    <t>Bahnhof AB</t>
+  </si>
+  <si>
+    <t>3B7.F</t>
+  </si>
+  <si>
+    <t>Shentel</t>
+  </si>
+  <si>
+    <t>SHEN</t>
+  </si>
+  <si>
+    <t>Ribbon Communications</t>
+  </si>
+  <si>
+    <t>RBBN</t>
+  </si>
+  <si>
+    <t>Hutchison Telecommunications Hong Kong Holdings</t>
+  </si>
+  <si>
+    <t>0215.HK</t>
+  </si>
+  <si>
+    <t>B Communications</t>
+  </si>
+  <si>
+    <t>BCOM.TA</t>
+  </si>
+  <si>
+    <t>SmarTone Telecommunications</t>
+  </si>
+  <si>
+    <t>0315.HK</t>
+  </si>
+  <si>
+    <t>JTOWER</t>
+  </si>
+  <si>
+    <t>4485.T</t>
+  </si>
+  <si>
+    <t>Sify</t>
+  </si>
+  <si>
+    <t>SIFY</t>
+  </si>
+  <si>
+    <t>mobilezone Holding</t>
+  </si>
+  <si>
+    <t>MOZN.SW</t>
+  </si>
+  <si>
+    <t>Gilat Satellite Networks</t>
+  </si>
+  <si>
+    <t>GILT</t>
+  </si>
+  <si>
+    <t>Bandwidth</t>
+  </si>
+  <si>
+    <t>BAND</t>
+  </si>
+  <si>
+    <t>WideOpenWest</t>
+  </si>
+  <si>
+    <t>WOW</t>
+  </si>
+  <si>
+    <t>Ooredoo Oman</t>
+  </si>
+  <si>
+    <t>ORDS.OM</t>
+  </si>
+  <si>
+    <t>Anterix</t>
+  </si>
+  <si>
+    <t>ATEX</t>
+  </si>
+  <si>
+    <t>Intracom Holdings</t>
+  </si>
+  <si>
+    <t>INTRK.AT</t>
+  </si>
+  <si>
+    <t>Ooma</t>
+  </si>
+  <si>
+    <t>OOMA</t>
+  </si>
+  <si>
+    <t>Mahanagar Telephone Nigam</t>
+  </si>
+  <si>
+    <t>MTNL.NS</t>
+  </si>
+  <si>
+    <t>Bredband2 i Skandinavien AB</t>
+  </si>
+  <si>
+    <t>BRE2.ST</t>
+  </si>
+  <si>
+    <t>Orbit Communication Systems</t>
+  </si>
+  <si>
+    <t>ORBI.TA</t>
+  </si>
+  <si>
+    <t>Hathway</t>
+  </si>
+  <si>
+    <t>HATHWAY.NS</t>
+  </si>
+  <si>
+    <t>Hutchison Telecommunications (Australia)</t>
+  </si>
+  <si>
+    <t>HTA.AX</t>
+  </si>
+  <si>
+    <t>Slam Corp</t>
+  </si>
+  <si>
+    <t>SLMWF</t>
+  </si>
+  <si>
+    <t>SÃ­minn hf.</t>
+  </si>
+  <si>
+    <t>SIMINN.IC</t>
+  </si>
+  <si>
+    <t>Sasken Technologies</t>
+  </si>
+  <si>
+    <t>SASKEN.NS</t>
+  </si>
+  <si>
+    <t>ATN International</t>
+  </si>
+  <si>
+    <t>ATNI</t>
+  </si>
+  <si>
+    <t>GTL Infrastructure</t>
+  </si>
+  <si>
+    <t>GTLINFRA.NS</t>
+  </si>
+  <si>
+    <t>RADCOM</t>
+  </si>
+  <si>
+    <t>RDCM</t>
+  </si>
+  <si>
+    <t>Nelco</t>
+  </si>
+  <si>
+    <t>NELCO.NS</t>
+  </si>
+  <si>
+    <t>Ascom Holding</t>
+  </si>
+  <si>
+    <t>ASCN.SW</t>
+  </si>
+  <si>
+    <t>Sangoma Technologies</t>
+  </si>
+  <si>
+    <t>SANG</t>
+  </si>
+  <si>
+    <t>CM.com</t>
+  </si>
+  <si>
+    <t>CMCOM.AS</t>
+  </si>
+  <si>
+    <t>Intred</t>
+  </si>
+  <si>
+    <t>ITD.MI</t>
+  </si>
+  <si>
+    <t>Sudatel Telecommunications Group</t>
+  </si>
+  <si>
+    <t>SUDATEL.AE</t>
+  </si>
+  <si>
+    <t>Smartoptics Group</t>
+  </si>
+  <si>
+    <t>SMOP.OL</t>
+  </si>
+  <si>
+    <t>GTPL Hathway</t>
+  </si>
+  <si>
+    <t>GTPL.NS</t>
+  </si>
+  <si>
+    <t>Nova KlÃºbburinn</t>
+  </si>
+  <si>
+    <t>NOVA.IC</t>
+  </si>
+  <si>
+    <t>Tele Columbus</t>
+  </si>
+  <si>
+    <t>TC1.HM</t>
+  </si>
+  <si>
+    <t>uCloudlink Group</t>
+  </si>
+  <si>
+    <t>UCL</t>
+  </si>
+  <si>
+    <t>Zain Bahrain</t>
+  </si>
+  <si>
+    <t>ZAINBH.BH</t>
+  </si>
+  <si>
+    <t>Tessellis</t>
+  </si>
+  <si>
+    <t>TSL.MI</t>
+  </si>
+  <si>
+    <t>ecotel communication</t>
+  </si>
+  <si>
+    <t>E4C.DE</t>
+  </si>
+  <si>
+    <t>SÃ½n hf.</t>
+  </si>
+  <si>
+    <t>SYN.IC</t>
+  </si>
+  <si>
+    <t>Reliance Communications</t>
+  </si>
+  <si>
+    <t>RCOM.NS</t>
+  </si>
+  <si>
+    <t>Vislink Technologies</t>
+  </si>
+  <si>
+    <t>VISL</t>
+  </si>
+  <si>
+    <t>M0YN.DE</t>
+  </si>
+  <si>
+    <t>United States</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>Saudi Arabia</t>
+  </si>
+  <si>
+    <t>Singapore</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>United Arab Emirates</t>
+  </si>
+  <si>
+    <t>Hong Kong</t>
+  </si>
+  <si>
+    <t>Switzerland</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>Taiwan</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>Thailand</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>Norway</t>
+  </si>
+  <si>
+    <t>Brazil</t>
+  </si>
+  <si>
+    <t>Indonesia</t>
+  </si>
+  <si>
+    <t>Netherlands</t>
+  </si>
+  <si>
+    <t>South Africa</t>
+  </si>
+  <si>
+    <t>Sweden</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>Qatar</t>
+  </si>
+  <si>
+    <t>Malaysia</t>
+  </si>
+  <si>
+    <t>South Korea</t>
+  </si>
+  <si>
+    <t>Finland</t>
+  </si>
+  <si>
+    <t>Luxembourg</t>
+  </si>
+  <si>
+    <t>Kuwait</t>
+  </si>
+  <si>
+    <t>Austria</t>
+  </si>
+  <si>
+    <t>Philippines</t>
+  </si>
+  <si>
+    <t>Russia</t>
+  </si>
+  <si>
+    <t>Turkey</t>
+  </si>
+  <si>
+    <t>Israel</t>
+  </si>
+  <si>
+    <t>Argentina</t>
+  </si>
+  <si>
+    <t>Poland</t>
+  </si>
+  <si>
+    <t>Belgium</t>
+  </si>
+  <si>
+    <t>New Zealand</t>
+  </si>
+  <si>
+    <t>Portugal</t>
+  </si>
+  <si>
+    <t>Bahrain</t>
+  </si>
+  <si>
+    <t>Oman</t>
+  </si>
+  <si>
+    <t>Cambodia</t>
+  </si>
+  <si>
+    <t>Lithuania</t>
+  </si>
+  <si>
+    <t>Iceland</t>
+  </si>
+  <si>
+    <t>Sudan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nippon Telegraph and Telephone </t>
+  </si>
+  <si>
+    <t>9432:T</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -8290,7 +9590,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0;\(#,##0\)"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -8358,8 +9658,127 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Aptos Display"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8372,8 +9791,181 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -8418,12 +10010,160 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -8455,10 +10195,53 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="43">
+    <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="24" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="32" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="36" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="40" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="21" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="25" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="29" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="33" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="37" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="41" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="26" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="30" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="34" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="38" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="42" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="19" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="23" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="27" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="31" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="35" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="39" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="8" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="12" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="14" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="17" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="7" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="3" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="4" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="5" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="6" builtinId="19" customBuiltin="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Input" xfId="10" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="13" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="9" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="16" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="11" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="2" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="18" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="15" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -8761,7 +10544,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -12265,7 +14048,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DC46DA1-10F2-4B4F-9A0F-3213D26202A4}">
   <dimension ref="A1:T1101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -33939,11 +35722,3280 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4BEC934-6190-4225-B91B-A3E49AD4F5CF}">
+  <dimension ref="A1:R223"/>
+  <sheetViews>
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.42578125" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>962</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3148</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>770</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>2584</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>2585</v>
+      </c>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="16" t="s">
+        <v>427</v>
+      </c>
+      <c r="Q3" s="16" t="s">
+        <v>2601</v>
+      </c>
+      <c r="R3" s="11"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>1</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>2716</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>2717</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>3099</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <f>+A4+1</f>
+        <v>2</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>2718</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>2719</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>3100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <f t="shared" ref="A6:A69" si="0">+A5+1</f>
+        <v>3</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>2720</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>2721</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>3099</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>2722</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>2723</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>3099</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>2724</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>2725</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>3101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>2726</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>2727</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>3102</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>2729</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>3103</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>2730</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>2731</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>3099</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>2732</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>2733</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>3099</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>2734</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>2735</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>3100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>3146</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>3147</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>3102</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>2736</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>2737</v>
+      </c>
+      <c r="D15" s="22" t="s">
+        <v>3102</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>2738</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>2739</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>3104</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>2740</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>2741</v>
+      </c>
+      <c r="D17" s="22" t="s">
+        <v>3105</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>2742</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>2743</v>
+      </c>
+      <c r="D18" s="22" t="s">
+        <v>3106</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>2744</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>2745</v>
+      </c>
+      <c r="D19" s="22" t="s">
+        <v>3099</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>2746</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>2747</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>3107</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>2748</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>2749</v>
+      </c>
+      <c r="D21" s="22" t="s">
+        <v>3108</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B22" s="21" t="s">
+        <v>2750</v>
+      </c>
+      <c r="C22" s="21" t="s">
+        <v>2751</v>
+      </c>
+      <c r="D22" s="22" t="s">
+        <v>3109</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B23" s="21" t="s">
+        <v>2752</v>
+      </c>
+      <c r="C23" s="21" t="s">
+        <v>2753</v>
+      </c>
+      <c r="D23" s="22" t="s">
+        <v>3099</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="5">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B24" s="21" t="s">
+        <v>2754</v>
+      </c>
+      <c r="C24" s="21" t="s">
+        <v>2755</v>
+      </c>
+      <c r="D24" s="22" t="s">
+        <v>3110</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="5">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B25" s="21" t="s">
+        <v>2756</v>
+      </c>
+      <c r="C25" s="21" t="s">
+        <v>2757</v>
+      </c>
+      <c r="D25" s="22" t="s">
+        <v>3111</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="5">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B26" s="21" t="s">
+        <v>2758</v>
+      </c>
+      <c r="C26" s="21" t="s">
+        <v>2759</v>
+      </c>
+      <c r="D26" s="22" t="s">
+        <v>3112</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="5">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B27" s="21" t="s">
+        <v>2760</v>
+      </c>
+      <c r="C27" s="21" t="s">
+        <v>2761</v>
+      </c>
+      <c r="D27" s="22" t="s">
+        <v>3113</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="5">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B28" s="21" t="s">
+        <v>2762</v>
+      </c>
+      <c r="C28" s="21" t="s">
+        <v>2763</v>
+      </c>
+      <c r="D28" s="22" t="s">
+        <v>3100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="5">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B29" s="21" t="s">
+        <v>2764</v>
+      </c>
+      <c r="C29" s="21" t="s">
+        <v>2765</v>
+      </c>
+      <c r="D29" s="22" t="s">
+        <v>3114</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="5">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B30" s="21" t="s">
+        <v>2766</v>
+      </c>
+      <c r="C30" s="21" t="s">
+        <v>2767</v>
+      </c>
+      <c r="D30" s="22" t="s">
+        <v>3114</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="5">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B31" s="21" t="s">
+        <v>2768</v>
+      </c>
+      <c r="C31" s="21" t="s">
+        <v>2769</v>
+      </c>
+      <c r="D31" s="22" t="s">
+        <v>3115</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="5">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B32" s="21" t="s">
+        <v>2770</v>
+      </c>
+      <c r="C32" s="21" t="s">
+        <v>2771</v>
+      </c>
+      <c r="D32" s="22" t="s">
+        <v>3100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="5">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B33" s="21" t="s">
+        <v>2772</v>
+      </c>
+      <c r="C33" s="21" t="s">
+        <v>2773</v>
+      </c>
+      <c r="D33" s="22" t="s">
+        <v>3109</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="5">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B34" s="21" t="s">
+        <v>2774</v>
+      </c>
+      <c r="C34" s="21" t="s">
+        <v>2775</v>
+      </c>
+      <c r="D34" s="22" t="s">
+        <v>3116</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="5">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B35" s="21" t="s">
+        <v>2776</v>
+      </c>
+      <c r="C35" s="21" t="s">
+        <v>2777</v>
+      </c>
+      <c r="D35" s="22" t="s">
+        <v>3113</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="5">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="B36" s="21" t="s">
+        <v>2778</v>
+      </c>
+      <c r="C36" s="21" t="s">
+        <v>2779</v>
+      </c>
+      <c r="D36" s="22" t="s">
+        <v>3099</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="5">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="B37" s="21" t="s">
+        <v>2780</v>
+      </c>
+      <c r="C37" s="21" t="s">
+        <v>2780</v>
+      </c>
+      <c r="D37" s="22" t="s">
+        <v>3116</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="5">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="B38" s="21" t="s">
+        <v>2781</v>
+      </c>
+      <c r="C38" s="21" t="s">
+        <v>2782</v>
+      </c>
+      <c r="D38" s="22" t="s">
+        <v>3117</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="5">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="B39" s="21" t="s">
+        <v>2783</v>
+      </c>
+      <c r="C39" s="21" t="s">
+        <v>2784</v>
+      </c>
+      <c r="D39" s="22" t="s">
+        <v>3118</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="5">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="B40" s="21" t="s">
+        <v>2785</v>
+      </c>
+      <c r="C40" s="21" t="s">
+        <v>2786</v>
+      </c>
+      <c r="D40" s="22" t="s">
+        <v>3119</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="5">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="B41" s="21" t="s">
+        <v>2787</v>
+      </c>
+      <c r="C41" s="21" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D41" s="22" t="s">
+        <v>3116</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="5">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="B42" s="21" t="s">
+        <v>2789</v>
+      </c>
+      <c r="C42" s="21" t="s">
+        <v>2790</v>
+      </c>
+      <c r="D42" s="22" t="s">
+        <v>3120</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="5">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="B43" s="21" t="s">
+        <v>2791</v>
+      </c>
+      <c r="C43" s="21" t="s">
+        <v>498</v>
+      </c>
+      <c r="D43" s="22" t="s">
+        <v>3099</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="5">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="B44" s="21" t="s">
+        <v>2792</v>
+      </c>
+      <c r="C44" s="21" t="s">
+        <v>2793</v>
+      </c>
+      <c r="D44" s="22" t="s">
+        <v>3121</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="5">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="B45" s="21" t="s">
+        <v>2794</v>
+      </c>
+      <c r="C45" s="21" t="s">
+        <v>2795</v>
+      </c>
+      <c r="D45" s="22" t="s">
+        <v>3121</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="5">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="B46" s="21" t="s">
+        <v>2796</v>
+      </c>
+      <c r="C46" s="21" t="s">
+        <v>2797</v>
+      </c>
+      <c r="D46" s="22" t="s">
+        <v>3122</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="5">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="B47" s="21" t="s">
+        <v>2798</v>
+      </c>
+      <c r="C47" s="21" t="s">
+        <v>2799</v>
+      </c>
+      <c r="D47" s="22" t="s">
+        <v>3100</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="5">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="B48" s="21" t="s">
+        <v>2800</v>
+      </c>
+      <c r="C48" s="21" t="s">
+        <v>2801</v>
+      </c>
+      <c r="D48" s="22" t="s">
+        <v>3105</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="5">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="B49" s="21" t="s">
+        <v>2802</v>
+      </c>
+      <c r="C49" s="21" t="s">
+        <v>2803</v>
+      </c>
+      <c r="D49" s="22" t="s">
+        <v>3108</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="5">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="B50" s="21" t="s">
+        <v>2804</v>
+      </c>
+      <c r="C50" s="21" t="s">
+        <v>2805</v>
+      </c>
+      <c r="D50" s="22" t="s">
+        <v>3099</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="5">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="B51" s="21" t="s">
+        <v>2806</v>
+      </c>
+      <c r="C51" s="21" t="s">
+        <v>2807</v>
+      </c>
+      <c r="D51" s="22" t="s">
+        <v>3115</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="5">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="B52" s="21" t="s">
+        <v>2808</v>
+      </c>
+      <c r="C52" s="21" t="s">
+        <v>2809</v>
+      </c>
+      <c r="D52" s="22" t="s">
+        <v>3122</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="5">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="B53" s="21" t="s">
+        <v>2810</v>
+      </c>
+      <c r="C53" s="21" t="s">
+        <v>2811</v>
+      </c>
+      <c r="D53" s="22" t="s">
+        <v>3114</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="5">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="B54" s="21" t="s">
+        <v>2812</v>
+      </c>
+      <c r="C54" s="21" t="s">
+        <v>2813</v>
+      </c>
+      <c r="D54" s="22" t="s">
+        <v>3123</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="5">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="B55" s="21" t="s">
+        <v>2814</v>
+      </c>
+      <c r="C55" s="21" t="s">
+        <v>2815</v>
+      </c>
+      <c r="D55" s="22" t="s">
+        <v>3124</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="5">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="B56" s="21" t="s">
+        <v>2816</v>
+      </c>
+      <c r="C56" s="21" t="s">
+        <v>2817</v>
+      </c>
+      <c r="D56" s="22" t="s">
+        <v>3109</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="5">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="B57" s="21" t="s">
+        <v>2818</v>
+      </c>
+      <c r="C57" s="21" t="s">
+        <v>2819</v>
+      </c>
+      <c r="D57" s="22" t="s">
+        <v>3123</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="5">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="B58" s="21" t="s">
+        <v>2820</v>
+      </c>
+      <c r="C58" s="21" t="s">
+        <v>2821</v>
+      </c>
+      <c r="D58" s="22" t="s">
+        <v>3114</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="5">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="B59" s="21" t="s">
+        <v>2822</v>
+      </c>
+      <c r="C59" s="21" t="s">
+        <v>2823</v>
+      </c>
+      <c r="D59" s="22" t="s">
+        <v>3103</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="5">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="B60" s="21" t="s">
+        <v>2824</v>
+      </c>
+      <c r="C60" s="21" t="s">
+        <v>2825</v>
+      </c>
+      <c r="D60" s="22" t="s">
+        <v>3103</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="5">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="B61" s="21" t="s">
+        <v>2826</v>
+      </c>
+      <c r="C61" s="21" t="s">
+        <v>2827</v>
+      </c>
+      <c r="D61" s="22" t="s">
+        <v>3112</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="5">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="B62" s="21" t="s">
+        <v>2828</v>
+      </c>
+      <c r="C62" s="21" t="s">
+        <v>2829</v>
+      </c>
+      <c r="D62" s="22" t="s">
+        <v>3125</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="5">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="B63" s="21" t="s">
+        <v>2830</v>
+      </c>
+      <c r="C63" s="21" t="s">
+        <v>2831</v>
+      </c>
+      <c r="D63" s="22" t="s">
+        <v>3108</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="5">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="B64" s="21" t="s">
+        <v>2832</v>
+      </c>
+      <c r="C64" s="21" t="s">
+        <v>2833</v>
+      </c>
+      <c r="D64" s="22" t="s">
+        <v>3118</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="5">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="B65" s="21" t="s">
+        <v>2834</v>
+      </c>
+      <c r="C65" s="21" t="s">
+        <v>2835</v>
+      </c>
+      <c r="D65" s="22" t="s">
+        <v>3126</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="5">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="B66" s="21" t="s">
+        <v>2836</v>
+      </c>
+      <c r="C66" s="21" t="s">
+        <v>2837</v>
+      </c>
+      <c r="D66" s="22" t="s">
+        <v>3112</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="5">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="B67" s="21" t="s">
+        <v>2838</v>
+      </c>
+      <c r="C67" s="21" t="s">
+        <v>2839</v>
+      </c>
+      <c r="D67" s="22" t="s">
+        <v>3099</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="5">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="B68" s="21" t="s">
+        <v>2840</v>
+      </c>
+      <c r="C68" s="21" t="s">
+        <v>2841</v>
+      </c>
+      <c r="D68" s="22" t="s">
+        <v>3103</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="5">
+        <f t="shared" si="0"/>
+        <v>66</v>
+      </c>
+      <c r="B69" s="21" t="s">
+        <v>2842</v>
+      </c>
+      <c r="C69" s="21" t="s">
+        <v>2843</v>
+      </c>
+      <c r="D69" s="22" t="s">
+        <v>3127</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="5">
+        <f t="shared" ref="A70:A133" si="1">+A69+1</f>
+        <v>67</v>
+      </c>
+      <c r="B70" s="21" t="s">
+        <v>2844</v>
+      </c>
+      <c r="C70" s="21" t="s">
+        <v>2845</v>
+      </c>
+      <c r="D70" s="22" t="s">
+        <v>3126</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="5">
+        <f t="shared" si="1"/>
+        <v>68</v>
+      </c>
+      <c r="B71" s="21" t="s">
+        <v>2846</v>
+      </c>
+      <c r="C71" s="21" t="s">
+        <v>2847</v>
+      </c>
+      <c r="D71" s="22" t="s">
+        <v>3119</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="5">
+        <f t="shared" si="1"/>
+        <v>69</v>
+      </c>
+      <c r="B72" s="21" t="s">
+        <v>2848</v>
+      </c>
+      <c r="C72" s="21" t="s">
+        <v>2849</v>
+      </c>
+      <c r="D72" s="22" t="s">
+        <v>3099</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="5">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+      <c r="B73" s="21" t="s">
+        <v>2850</v>
+      </c>
+      <c r="C73" s="21" t="s">
+        <v>2851</v>
+      </c>
+      <c r="D73" s="22" t="s">
+        <v>3099</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="5">
+        <f t="shared" si="1"/>
+        <v>71</v>
+      </c>
+      <c r="B74" s="21" t="s">
+        <v>2852</v>
+      </c>
+      <c r="C74" s="21" t="s">
+        <v>2853</v>
+      </c>
+      <c r="D74" s="22" t="s">
+        <v>3128</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="5">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="B75" s="21" t="s">
+        <v>2854</v>
+      </c>
+      <c r="C75" s="21" t="s">
+        <v>2855</v>
+      </c>
+      <c r="D75" s="22" t="s">
+        <v>1642</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="5">
+        <f t="shared" si="1"/>
+        <v>73</v>
+      </c>
+      <c r="B76" s="21" t="s">
+        <v>2856</v>
+      </c>
+      <c r="C76" s="21" t="s">
+        <v>2857</v>
+      </c>
+      <c r="D76" s="22" t="s">
+        <v>3129</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="5">
+        <f t="shared" si="1"/>
+        <v>74</v>
+      </c>
+      <c r="B77" s="21" t="s">
+        <v>2858</v>
+      </c>
+      <c r="C77" s="21" t="s">
+        <v>2859</v>
+      </c>
+      <c r="D77" s="22" t="s">
+        <v>3130</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="5">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+      <c r="B78" s="21" t="s">
+        <v>2860</v>
+      </c>
+      <c r="C78" s="21" t="s">
+        <v>2861</v>
+      </c>
+      <c r="D78" s="22" t="s">
+        <v>3126</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="5">
+        <f t="shared" si="1"/>
+        <v>76</v>
+      </c>
+      <c r="B79" s="21" t="s">
+        <v>2862</v>
+      </c>
+      <c r="C79" s="21" t="s">
+        <v>620</v>
+      </c>
+      <c r="D79" s="22" t="s">
+        <v>3099</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="5">
+        <f t="shared" si="1"/>
+        <v>77</v>
+      </c>
+      <c r="B80" s="21" t="s">
+        <v>2863</v>
+      </c>
+      <c r="C80" s="21" t="s">
+        <v>2864</v>
+      </c>
+      <c r="D80" s="22" t="s">
+        <v>3125</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="5">
+        <f t="shared" si="1"/>
+        <v>78</v>
+      </c>
+      <c r="B81" s="21" t="s">
+        <v>2865</v>
+      </c>
+      <c r="C81" s="21" t="s">
+        <v>2866</v>
+      </c>
+      <c r="D81" s="22" t="s">
+        <v>3116</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="5">
+        <f t="shared" si="1"/>
+        <v>79</v>
+      </c>
+      <c r="B82" s="21" t="s">
+        <v>2867</v>
+      </c>
+      <c r="C82" s="21" t="s">
+        <v>2868</v>
+      </c>
+      <c r="D82" s="22" t="s">
+        <v>3099</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="5">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="B83" s="21" t="s">
+        <v>2869</v>
+      </c>
+      <c r="C83" s="21" t="s">
+        <v>2870</v>
+      </c>
+      <c r="D83" s="22" t="s">
+        <v>3125</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="5">
+        <f t="shared" si="1"/>
+        <v>81</v>
+      </c>
+      <c r="B84" s="21" t="s">
+        <v>2871</v>
+      </c>
+      <c r="C84" s="21" t="s">
+        <v>2872</v>
+      </c>
+      <c r="D84" s="22" t="s">
+        <v>3111</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="5">
+        <f t="shared" si="1"/>
+        <v>82</v>
+      </c>
+      <c r="B85" s="21" t="s">
+        <v>2873</v>
+      </c>
+      <c r="C85" s="21" t="s">
+        <v>2874</v>
+      </c>
+      <c r="D85" s="22" t="s">
+        <v>3131</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="5">
+        <f t="shared" si="1"/>
+        <v>83</v>
+      </c>
+      <c r="B86" s="21" t="s">
+        <v>2875</v>
+      </c>
+      <c r="C86" s="21" t="s">
+        <v>2876</v>
+      </c>
+      <c r="D86" s="22" t="s">
+        <v>3125</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="5">
+        <f t="shared" si="1"/>
+        <v>84</v>
+      </c>
+      <c r="B87" s="21" t="s">
+        <v>2877</v>
+      </c>
+      <c r="C87" s="21" t="s">
+        <v>2878</v>
+      </c>
+      <c r="D87" s="22" t="s">
+        <v>3132</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="5">
+        <f t="shared" si="1"/>
+        <v>85</v>
+      </c>
+      <c r="B88" s="21" t="s">
+        <v>695</v>
+      </c>
+      <c r="C88" s="21" t="s">
+        <v>696</v>
+      </c>
+      <c r="D88" s="22" t="s">
+        <v>3101</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="5">
+        <f t="shared" si="1"/>
+        <v>86</v>
+      </c>
+      <c r="B89" s="21" t="s">
+        <v>2879</v>
+      </c>
+      <c r="C89" s="21" t="s">
+        <v>2880</v>
+      </c>
+      <c r="D89" s="22" t="s">
+        <v>3109</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="5">
+        <f t="shared" si="1"/>
+        <v>87</v>
+      </c>
+      <c r="B90" s="21" t="s">
+        <v>2881</v>
+      </c>
+      <c r="C90" s="21" t="s">
+        <v>2882</v>
+      </c>
+      <c r="D90" s="22" t="s">
+        <v>3133</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="5">
+        <f t="shared" si="1"/>
+        <v>88</v>
+      </c>
+      <c r="B91" s="21" t="s">
+        <v>2883</v>
+      </c>
+      <c r="C91" s="21" t="s">
+        <v>2884</v>
+      </c>
+      <c r="D91" s="22" t="s">
+        <v>3103</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="5">
+        <f t="shared" si="1"/>
+        <v>89</v>
+      </c>
+      <c r="B92" s="21" t="s">
+        <v>2885</v>
+      </c>
+      <c r="C92" s="21" t="s">
+        <v>2886</v>
+      </c>
+      <c r="D92" s="22" t="s">
+        <v>3103</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="5">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="B93" s="21" t="s">
+        <v>2887</v>
+      </c>
+      <c r="C93" s="21" t="s">
+        <v>2888</v>
+      </c>
+      <c r="D93" s="22" t="s">
+        <v>3119</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="5">
+        <f t="shared" si="1"/>
+        <v>91</v>
+      </c>
+      <c r="B94" s="21" t="s">
+        <v>2889</v>
+      </c>
+      <c r="C94" s="21" t="s">
+        <v>2890</v>
+      </c>
+      <c r="D94" s="22" t="s">
+        <v>3133</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="5">
+        <f t="shared" si="1"/>
+        <v>92</v>
+      </c>
+      <c r="B95" s="21" t="s">
+        <v>2891</v>
+      </c>
+      <c r="C95" s="21" t="s">
+        <v>2892</v>
+      </c>
+      <c r="D95" s="22" t="s">
+        <v>3134</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="5">
+        <f t="shared" si="1"/>
+        <v>93</v>
+      </c>
+      <c r="B96" s="21" t="s">
+        <v>2893</v>
+      </c>
+      <c r="C96" s="21" t="s">
+        <v>2894</v>
+      </c>
+      <c r="D96" s="22" t="s">
+        <v>3131</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="5">
+        <f t="shared" si="1"/>
+        <v>94</v>
+      </c>
+      <c r="B97" s="21" t="s">
+        <v>644</v>
+      </c>
+      <c r="C97" s="21" t="s">
+        <v>645</v>
+      </c>
+      <c r="D97" s="22" t="s">
+        <v>3099</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="5">
+        <f t="shared" si="1"/>
+        <v>95</v>
+      </c>
+      <c r="B98" s="21" t="s">
+        <v>2895</v>
+      </c>
+      <c r="C98" s="21" t="s">
+        <v>2896</v>
+      </c>
+      <c r="D98" s="22" t="s">
+        <v>3099</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="5">
+        <f t="shared" si="1"/>
+        <v>96</v>
+      </c>
+      <c r="B99" s="21" t="s">
+        <v>2897</v>
+      </c>
+      <c r="C99" s="21" t="s">
+        <v>2897</v>
+      </c>
+      <c r="D99" s="22" t="s">
+        <v>3120</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="5">
+        <f t="shared" si="1"/>
+        <v>97</v>
+      </c>
+      <c r="B100" s="21" t="s">
+        <v>2898</v>
+      </c>
+      <c r="C100" s="21" t="s">
+        <v>2899</v>
+      </c>
+      <c r="D100" s="22" t="s">
+        <v>3135</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="5">
+        <f t="shared" si="1"/>
+        <v>98</v>
+      </c>
+      <c r="B101" s="21" t="s">
+        <v>2900</v>
+      </c>
+      <c r="C101" s="21" t="s">
+        <v>2901</v>
+      </c>
+      <c r="D101" s="22" t="s">
+        <v>3119</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" s="5">
+        <f t="shared" si="1"/>
+        <v>99</v>
+      </c>
+      <c r="B102" s="21" t="s">
+        <v>2902</v>
+      </c>
+      <c r="C102" s="21" t="s">
+        <v>2903</v>
+      </c>
+      <c r="D102" s="22" t="s">
+        <v>3110</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" s="5">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="B103" s="21" t="s">
+        <v>2904</v>
+      </c>
+      <c r="C103" s="21" t="s">
+        <v>2905</v>
+      </c>
+      <c r="D103" s="22" t="s">
+        <v>3101</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" s="5">
+        <f t="shared" si="1"/>
+        <v>101</v>
+      </c>
+      <c r="B104" s="21" t="s">
+        <v>2906</v>
+      </c>
+      <c r="C104" s="21" t="s">
+        <v>2907</v>
+      </c>
+      <c r="D104" s="22" t="s">
+        <v>3114</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" s="5">
+        <f t="shared" si="1"/>
+        <v>102</v>
+      </c>
+      <c r="B105" s="21" t="s">
+        <v>2908</v>
+      </c>
+      <c r="C105" s="21" t="s">
+        <v>2909</v>
+      </c>
+      <c r="D105" s="22" t="s">
+        <v>3101</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" s="5">
+        <f t="shared" si="1"/>
+        <v>103</v>
+      </c>
+      <c r="B106" s="21" t="s">
+        <v>1253</v>
+      </c>
+      <c r="C106" s="21" t="s">
+        <v>1254</v>
+      </c>
+      <c r="D106" s="22" t="s">
+        <v>3099</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" s="5">
+        <f t="shared" si="1"/>
+        <v>104</v>
+      </c>
+      <c r="B107" s="21" t="s">
+        <v>2910</v>
+      </c>
+      <c r="C107" s="21" t="s">
+        <v>2911</v>
+      </c>
+      <c r="D107" s="22" t="s">
+        <v>3099</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" s="5">
+        <f t="shared" si="1"/>
+        <v>105</v>
+      </c>
+      <c r="B108" s="21" t="s">
+        <v>2912</v>
+      </c>
+      <c r="C108" s="21" t="s">
+        <v>2913</v>
+      </c>
+      <c r="D108" s="22" t="s">
+        <v>3099</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" s="5">
+        <f t="shared" si="1"/>
+        <v>106</v>
+      </c>
+      <c r="B109" s="21" t="s">
+        <v>2914</v>
+      </c>
+      <c r="C109" s="21" t="s">
+        <v>2915</v>
+      </c>
+      <c r="D109" s="22" t="s">
+        <v>3099</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" s="5">
+        <f t="shared" si="1"/>
+        <v>107</v>
+      </c>
+      <c r="B110" s="21" t="s">
+        <v>2916</v>
+      </c>
+      <c r="C110" s="21" t="s">
+        <v>2917</v>
+      </c>
+      <c r="D110" s="22" t="s">
+        <v>3136</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" s="5">
+        <f t="shared" si="1"/>
+        <v>108</v>
+      </c>
+      <c r="B111" s="21" t="s">
+        <v>2918</v>
+      </c>
+      <c r="C111" s="21" t="s">
+        <v>2919</v>
+      </c>
+      <c r="D111" s="22" t="s">
+        <v>3119</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" s="5">
+        <f t="shared" si="1"/>
+        <v>109</v>
+      </c>
+      <c r="B112" s="21" t="s">
+        <v>2920</v>
+      </c>
+      <c r="C112" s="21" t="s">
+        <v>2921</v>
+      </c>
+      <c r="D112" s="22" t="s">
+        <v>3124</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" s="5">
+        <f t="shared" si="1"/>
+        <v>110</v>
+      </c>
+      <c r="B113" s="21" t="s">
+        <v>2922</v>
+      </c>
+      <c r="C113" s="21" t="s">
+        <v>2923</v>
+      </c>
+      <c r="D113" s="22" t="s">
+        <v>3128</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" s="5">
+        <f t="shared" si="1"/>
+        <v>111</v>
+      </c>
+      <c r="B114" s="21" t="s">
+        <v>2924</v>
+      </c>
+      <c r="C114" s="21" t="s">
+        <v>2925</v>
+      </c>
+      <c r="D114" s="22" t="s">
+        <v>3137</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" s="5">
+        <f t="shared" si="1"/>
+        <v>112</v>
+      </c>
+      <c r="B115" s="21" t="s">
+        <v>2926</v>
+      </c>
+      <c r="C115" s="21" t="s">
+        <v>2927</v>
+      </c>
+      <c r="D115" s="22" t="s">
+        <v>3106</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" s="5">
+        <f t="shared" si="1"/>
+        <v>113</v>
+      </c>
+      <c r="B116" s="21" t="s">
+        <v>2928</v>
+      </c>
+      <c r="C116" s="21" t="s">
+        <v>2929</v>
+      </c>
+      <c r="D116" s="22" t="s">
+        <v>3138</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" s="5">
+        <f t="shared" si="1"/>
+        <v>114</v>
+      </c>
+      <c r="B117" s="21" t="s">
+        <v>2930</v>
+      </c>
+      <c r="C117" s="21" t="s">
+        <v>2931</v>
+      </c>
+      <c r="D117" s="22" t="s">
+        <v>3111</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" s="5">
+        <f t="shared" si="1"/>
+        <v>115</v>
+      </c>
+      <c r="B118" s="21" t="s">
+        <v>2932</v>
+      </c>
+      <c r="C118" s="21" t="s">
+        <v>2933</v>
+      </c>
+      <c r="D118" s="22" t="s">
+        <v>3122</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" s="5">
+        <f t="shared" si="1"/>
+        <v>116</v>
+      </c>
+      <c r="B119" s="21" t="s">
+        <v>2934</v>
+      </c>
+      <c r="C119" s="21" t="s">
+        <v>2935</v>
+      </c>
+      <c r="D119" s="22" t="s">
+        <v>3119</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" s="5">
+        <f t="shared" si="1"/>
+        <v>117</v>
+      </c>
+      <c r="B120" s="21" t="s">
+        <v>2936</v>
+      </c>
+      <c r="C120" s="21" t="s">
+        <v>2937</v>
+      </c>
+      <c r="D120" s="22" t="s">
+        <v>3099</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" s="5">
+        <f t="shared" si="1"/>
+        <v>118</v>
+      </c>
+      <c r="B121" s="21" t="s">
+        <v>2938</v>
+      </c>
+      <c r="C121" s="21" t="s">
+        <v>2939</v>
+      </c>
+      <c r="D121" s="22" t="s">
+        <v>3105</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122" s="5">
+        <f t="shared" si="1"/>
+        <v>119</v>
+      </c>
+      <c r="B122" s="21" t="s">
+        <v>2940</v>
+      </c>
+      <c r="C122" s="21" t="s">
+        <v>2941</v>
+      </c>
+      <c r="D122" s="22" t="s">
+        <v>3119</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123" s="5">
+        <f t="shared" si="1"/>
+        <v>120</v>
+      </c>
+      <c r="B123" s="21" t="s">
+        <v>2942</v>
+      </c>
+      <c r="C123" s="21" t="s">
+        <v>2943</v>
+      </c>
+      <c r="D123" s="22" t="s">
+        <v>3138</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124" s="5">
+        <f t="shared" si="1"/>
+        <v>121</v>
+      </c>
+      <c r="B124" s="21" t="s">
+        <v>2944</v>
+      </c>
+      <c r="C124" s="21" t="s">
+        <v>2945</v>
+      </c>
+      <c r="D124" s="22" t="s">
+        <v>3104</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125" s="5">
+        <f t="shared" si="1"/>
+        <v>122</v>
+      </c>
+      <c r="B125" s="21" t="s">
+        <v>2946</v>
+      </c>
+      <c r="C125" s="21" t="s">
+        <v>2947</v>
+      </c>
+      <c r="D125" s="22" t="s">
+        <v>3139</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126" s="5">
+        <f t="shared" si="1"/>
+        <v>123</v>
+      </c>
+      <c r="B126" s="21" t="s">
+        <v>2948</v>
+      </c>
+      <c r="C126" s="21" t="s">
+        <v>2949</v>
+      </c>
+      <c r="D126" s="22" t="s">
+        <v>3114</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127" s="5">
+        <f t="shared" si="1"/>
+        <v>124</v>
+      </c>
+      <c r="B127" s="21" t="s">
+        <v>2950</v>
+      </c>
+      <c r="C127" s="21" t="s">
+        <v>2951</v>
+      </c>
+      <c r="D127" s="22" t="s">
+        <v>3136</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128" s="5">
+        <f t="shared" si="1"/>
+        <v>125</v>
+      </c>
+      <c r="B128" s="21" t="s">
+        <v>2952</v>
+      </c>
+      <c r="C128" s="21" t="s">
+        <v>2953</v>
+      </c>
+      <c r="D128" s="22" t="s">
+        <v>3140</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129" s="5">
+        <f t="shared" si="1"/>
+        <v>126</v>
+      </c>
+      <c r="B129" s="21" t="s">
+        <v>2954</v>
+      </c>
+      <c r="C129" s="21" t="s">
+        <v>2955</v>
+      </c>
+      <c r="D129" s="22" t="s">
+        <v>3114</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" s="5">
+        <f t="shared" si="1"/>
+        <v>127</v>
+      </c>
+      <c r="B130" s="21" t="s">
+        <v>2956</v>
+      </c>
+      <c r="C130" s="21" t="s">
+        <v>2957</v>
+      </c>
+      <c r="D130" s="22" t="s">
+        <v>3129</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131" s="5">
+        <f t="shared" si="1"/>
+        <v>128</v>
+      </c>
+      <c r="B131" s="21" t="s">
+        <v>2958</v>
+      </c>
+      <c r="C131" s="21" t="s">
+        <v>2959</v>
+      </c>
+      <c r="D131" s="22" t="s">
+        <v>3141</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132" s="5">
+        <f t="shared" si="1"/>
+        <v>129</v>
+      </c>
+      <c r="B132" s="21" t="s">
+        <v>2960</v>
+      </c>
+      <c r="C132" s="21" t="s">
+        <v>2961</v>
+      </c>
+      <c r="D132" s="22" t="s">
+        <v>3116</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133" s="5">
+        <f t="shared" si="1"/>
+        <v>130</v>
+      </c>
+      <c r="B133" s="21" t="s">
+        <v>2962</v>
+      </c>
+      <c r="C133" s="21" t="s">
+        <v>2963</v>
+      </c>
+      <c r="D133" s="22" t="s">
+        <v>3129</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134" s="5">
+        <f t="shared" ref="A134:A197" si="2">+A133+1</f>
+        <v>131</v>
+      </c>
+      <c r="B134" s="21" t="s">
+        <v>2964</v>
+      </c>
+      <c r="C134" s="21" t="s">
+        <v>2965</v>
+      </c>
+      <c r="D134" s="22" t="s">
+        <v>3099</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135" s="5">
+        <f t="shared" si="2"/>
+        <v>132</v>
+      </c>
+      <c r="B135" s="21" t="s">
+        <v>1306</v>
+      </c>
+      <c r="C135" s="21" t="s">
+        <v>1307</v>
+      </c>
+      <c r="D135" s="22" t="s">
+        <v>3107</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136" s="5">
+        <f t="shared" si="2"/>
+        <v>133</v>
+      </c>
+      <c r="B136" s="21" t="s">
+        <v>2966</v>
+      </c>
+      <c r="C136" s="21" t="s">
+        <v>2967</v>
+      </c>
+      <c r="D136" s="22" t="s">
+        <v>3134</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137" s="5">
+        <f t="shared" si="2"/>
+        <v>134</v>
+      </c>
+      <c r="B137" s="21" t="s">
+        <v>2968</v>
+      </c>
+      <c r="C137" s="21" t="s">
+        <v>2969</v>
+      </c>
+      <c r="D137" s="22" t="s">
+        <v>3107</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138" s="5">
+        <f t="shared" si="2"/>
+        <v>135</v>
+      </c>
+      <c r="B138" s="21" t="s">
+        <v>2970</v>
+      </c>
+      <c r="C138" s="21" t="s">
+        <v>2971</v>
+      </c>
+      <c r="D138" s="22" t="s">
+        <v>3099</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139" s="5">
+        <f t="shared" si="2"/>
+        <v>136</v>
+      </c>
+      <c r="B139" s="21" t="s">
+        <v>2972</v>
+      </c>
+      <c r="C139" s="21" t="s">
+        <v>2973</v>
+      </c>
+      <c r="D139" s="22" t="s">
+        <v>3099</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140" s="5">
+        <f t="shared" si="2"/>
+        <v>137</v>
+      </c>
+      <c r="B140" s="21" t="s">
+        <v>2974</v>
+      </c>
+      <c r="C140" s="21" t="s">
+        <v>2975</v>
+      </c>
+      <c r="D140" s="22" t="s">
+        <v>3099</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141" s="5">
+        <f t="shared" si="2"/>
+        <v>138</v>
+      </c>
+      <c r="B141" s="21" t="s">
+        <v>2976</v>
+      </c>
+      <c r="C141" s="21" t="s">
+        <v>2977</v>
+      </c>
+      <c r="D141" s="22" t="s">
+        <v>3134</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142" s="5">
+        <f t="shared" si="2"/>
+        <v>139</v>
+      </c>
+      <c r="B142" s="21" t="s">
+        <v>2978</v>
+      </c>
+      <c r="C142" s="21" t="s">
+        <v>2979</v>
+      </c>
+      <c r="D142" s="22" t="s">
+        <v>3099</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143" s="5">
+        <f t="shared" si="2"/>
+        <v>140</v>
+      </c>
+      <c r="B143" s="21" t="s">
+        <v>2980</v>
+      </c>
+      <c r="C143" s="21" t="s">
+        <v>2981</v>
+      </c>
+      <c r="D143" s="22" t="s">
+        <v>3121</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A144" s="5">
+        <f t="shared" si="2"/>
+        <v>141</v>
+      </c>
+      <c r="B144" s="21" t="s">
+        <v>2982</v>
+      </c>
+      <c r="C144" s="21" t="s">
+        <v>2983</v>
+      </c>
+      <c r="D144" s="22" t="s">
+        <v>3108</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145" s="5">
+        <f t="shared" si="2"/>
+        <v>142</v>
+      </c>
+      <c r="B145" s="21" t="s">
+        <v>2984</v>
+      </c>
+      <c r="C145" s="21" t="s">
+        <v>2985</v>
+      </c>
+      <c r="D145" s="22" t="s">
+        <v>3114</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146" s="5">
+        <f t="shared" si="2"/>
+        <v>143</v>
+      </c>
+      <c r="B146" s="21" t="s">
+        <v>2986</v>
+      </c>
+      <c r="C146" s="21" t="s">
+        <v>2987</v>
+      </c>
+      <c r="D146" s="22" t="s">
+        <v>3103</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A147" s="5">
+        <f t="shared" si="2"/>
+        <v>144</v>
+      </c>
+      <c r="B147" s="21" t="s">
+        <v>2988</v>
+      </c>
+      <c r="C147" s="21" t="s">
+        <v>2989</v>
+      </c>
+      <c r="D147" s="22" t="s">
+        <v>3101</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A148" s="5">
+        <f t="shared" si="2"/>
+        <v>145</v>
+      </c>
+      <c r="B148" s="21" t="s">
+        <v>1366</v>
+      </c>
+      <c r="C148" s="21" t="s">
+        <v>1367</v>
+      </c>
+      <c r="D148" s="22" t="s">
+        <v>3107</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A149" s="5">
+        <f t="shared" si="2"/>
+        <v>146</v>
+      </c>
+      <c r="B149" s="21" t="s">
+        <v>2990</v>
+      </c>
+      <c r="C149" s="21" t="s">
+        <v>2991</v>
+      </c>
+      <c r="D149" s="22" t="s">
+        <v>3142</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150" s="5">
+        <f t="shared" si="2"/>
+        <v>147</v>
+      </c>
+      <c r="B150" s="21" t="s">
+        <v>2992</v>
+      </c>
+      <c r="C150" s="21" t="s">
+        <v>2993</v>
+      </c>
+      <c r="D150" s="22" t="s">
+        <v>3143</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A151" s="5">
+        <f t="shared" si="2"/>
+        <v>148</v>
+      </c>
+      <c r="B151" s="21" t="s">
+        <v>2994</v>
+      </c>
+      <c r="C151" s="21" t="s">
+        <v>2995</v>
+      </c>
+      <c r="D151" s="22" t="s">
+        <v>3099</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A152" s="5">
+        <f t="shared" si="2"/>
+        <v>149</v>
+      </c>
+      <c r="B152" s="21" t="s">
+        <v>2996</v>
+      </c>
+      <c r="C152" s="21" t="s">
+        <v>2997</v>
+      </c>
+      <c r="D152" s="22" t="s">
+        <v>3099</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A153" s="5">
+        <f t="shared" si="2"/>
+        <v>150</v>
+      </c>
+      <c r="B153" s="21" t="s">
+        <v>2998</v>
+      </c>
+      <c r="C153" s="21" t="s">
+        <v>2999</v>
+      </c>
+      <c r="D153" s="22" t="s">
+        <v>3111</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A154" s="5">
+        <f t="shared" si="2"/>
+        <v>151</v>
+      </c>
+      <c r="B154" s="21" t="s">
+        <v>3000</v>
+      </c>
+      <c r="C154" s="21" t="s">
+        <v>3001</v>
+      </c>
+      <c r="D154" s="22" t="s">
+        <v>3111</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A155" s="5">
+        <f t="shared" si="2"/>
+        <v>152</v>
+      </c>
+      <c r="B155" s="21" t="s">
+        <v>3002</v>
+      </c>
+      <c r="C155" s="21" t="s">
+        <v>3003</v>
+      </c>
+      <c r="D155" s="22" t="s">
+        <v>3130</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A156" s="5">
+        <f t="shared" si="2"/>
+        <v>153</v>
+      </c>
+      <c r="B156" s="21" t="s">
+        <v>1616</v>
+      </c>
+      <c r="C156" s="21" t="s">
+        <v>1617</v>
+      </c>
+      <c r="D156" s="22" t="s">
+        <v>3103</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A157" s="5">
+        <f t="shared" si="2"/>
+        <v>154</v>
+      </c>
+      <c r="B157" s="21" t="s">
+        <v>3004</v>
+      </c>
+      <c r="C157" s="21" t="s">
+        <v>3005</v>
+      </c>
+      <c r="D157" s="22" t="s">
+        <v>3105</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A158" s="5">
+        <f t="shared" si="2"/>
+        <v>155</v>
+      </c>
+      <c r="B158" s="21" t="s">
+        <v>3006</v>
+      </c>
+      <c r="C158" s="21" t="s">
+        <v>3007</v>
+      </c>
+      <c r="D158" s="22" t="s">
+        <v>3099</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A159" s="5">
+        <f t="shared" si="2"/>
+        <v>156</v>
+      </c>
+      <c r="B159" s="21" t="s">
+        <v>3008</v>
+      </c>
+      <c r="C159" s="21" t="s">
+        <v>3009</v>
+      </c>
+      <c r="D159" s="22" t="s">
+        <v>3117</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A160" s="5">
+        <f t="shared" si="2"/>
+        <v>157</v>
+      </c>
+      <c r="B160" s="21" t="s">
+        <v>3010</v>
+      </c>
+      <c r="C160" s="21" t="s">
+        <v>3011</v>
+      </c>
+      <c r="D160" s="22" t="s">
+        <v>3122</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A161" s="5">
+        <f t="shared" si="2"/>
+        <v>158</v>
+      </c>
+      <c r="B161" s="21" t="s">
+        <v>3012</v>
+      </c>
+      <c r="C161" s="21" t="s">
+        <v>3013</v>
+      </c>
+      <c r="D161" s="22" t="s">
+        <v>3099</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A162" s="5">
+        <f t="shared" si="2"/>
+        <v>159</v>
+      </c>
+      <c r="B162" s="21" t="s">
+        <v>3014</v>
+      </c>
+      <c r="C162" s="21" t="s">
+        <v>3015</v>
+      </c>
+      <c r="D162" s="22" t="s">
+        <v>3099</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A163" s="5">
+        <f t="shared" si="2"/>
+        <v>160</v>
+      </c>
+      <c r="B163" s="21" t="s">
+        <v>3016</v>
+      </c>
+      <c r="C163" s="21" t="s">
+        <v>3017</v>
+      </c>
+      <c r="D163" s="22" t="s">
+        <v>3109</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A164" s="5">
+        <f t="shared" si="2"/>
+        <v>161</v>
+      </c>
+      <c r="B164" s="21" t="s">
+        <v>3018</v>
+      </c>
+      <c r="C164" s="21" t="s">
+        <v>3019</v>
+      </c>
+      <c r="D164" s="22" t="s">
+        <v>3134</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A165" s="5">
+        <f t="shared" si="2"/>
+        <v>162</v>
+      </c>
+      <c r="B165" s="21" t="s">
+        <v>3020</v>
+      </c>
+      <c r="C165" s="21" t="s">
+        <v>3021</v>
+      </c>
+      <c r="D165" s="22" t="s">
+        <v>3109</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A166" s="5">
+        <f t="shared" si="2"/>
+        <v>163</v>
+      </c>
+      <c r="B166" s="21" t="s">
+        <v>3022</v>
+      </c>
+      <c r="C166" s="21" t="s">
+        <v>3023</v>
+      </c>
+      <c r="D166" s="22" t="s">
+        <v>3102</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A167" s="5">
+        <f t="shared" si="2"/>
+        <v>164</v>
+      </c>
+      <c r="B167" s="21" t="s">
+        <v>3024</v>
+      </c>
+      <c r="C167" s="21" t="s">
+        <v>3025</v>
+      </c>
+      <c r="D167" s="22" t="s">
+        <v>3103</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A168" s="5">
+        <f t="shared" si="2"/>
+        <v>165</v>
+      </c>
+      <c r="B168" s="21" t="s">
+        <v>3026</v>
+      </c>
+      <c r="C168" s="21" t="s">
+        <v>3027</v>
+      </c>
+      <c r="D168" s="22" t="s">
+        <v>3110</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A169" s="5">
+        <f t="shared" si="2"/>
+        <v>166</v>
+      </c>
+      <c r="B169" s="21" t="s">
+        <v>3028</v>
+      </c>
+      <c r="C169" s="21" t="s">
+        <v>3029</v>
+      </c>
+      <c r="D169" s="22" t="s">
+        <v>3134</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A170" s="5">
+        <f t="shared" si="2"/>
+        <v>167</v>
+      </c>
+      <c r="B170" s="21" t="s">
+        <v>3030</v>
+      </c>
+      <c r="C170" s="21" t="s">
+        <v>3031</v>
+      </c>
+      <c r="D170" s="22" t="s">
+        <v>3099</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A171" s="5">
+        <f t="shared" si="2"/>
+        <v>168</v>
+      </c>
+      <c r="B171" s="21" t="s">
+        <v>3032</v>
+      </c>
+      <c r="C171" s="21" t="s">
+        <v>3033</v>
+      </c>
+      <c r="D171" s="22" t="s">
+        <v>3099</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A172" s="5">
+        <f t="shared" si="2"/>
+        <v>169</v>
+      </c>
+      <c r="B172" s="21" t="s">
+        <v>3034</v>
+      </c>
+      <c r="C172" s="21" t="s">
+        <v>3035</v>
+      </c>
+      <c r="D172" s="22" t="s">
+        <v>3141</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A173" s="5">
+        <f t="shared" si="2"/>
+        <v>170</v>
+      </c>
+      <c r="B173" s="21" t="s">
+        <v>3036</v>
+      </c>
+      <c r="C173" s="21" t="s">
+        <v>3037</v>
+      </c>
+      <c r="D173" s="22" t="s">
+        <v>3099</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A174" s="5">
+        <f t="shared" si="2"/>
+        <v>171</v>
+      </c>
+      <c r="B174" s="21" t="s">
+        <v>1883</v>
+      </c>
+      <c r="C174" s="21" t="s">
+        <v>1884</v>
+      </c>
+      <c r="D174" s="22" t="s">
+        <v>3099</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A175" s="5">
+        <f t="shared" si="2"/>
+        <v>172</v>
+      </c>
+      <c r="B175" s="21" t="s">
+        <v>3038</v>
+      </c>
+      <c r="C175" s="21" t="s">
+        <v>3039</v>
+      </c>
+      <c r="D175" s="22" t="s">
+        <v>1642</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A176" s="5">
+        <f t="shared" si="2"/>
+        <v>173</v>
+      </c>
+      <c r="B176" s="21" t="s">
+        <v>3040</v>
+      </c>
+      <c r="C176" s="21" t="s">
+        <v>3041</v>
+      </c>
+      <c r="D176" s="22" t="s">
+        <v>3099</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A177" s="5">
+        <f t="shared" si="2"/>
+        <v>174</v>
+      </c>
+      <c r="B177" s="21" t="s">
+        <v>3042</v>
+      </c>
+      <c r="C177" s="21" t="s">
+        <v>3043</v>
+      </c>
+      <c r="D177" s="22" t="s">
+        <v>3103</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A178" s="5">
+        <f t="shared" si="2"/>
+        <v>175</v>
+      </c>
+      <c r="B178" s="21" t="s">
+        <v>3044</v>
+      </c>
+      <c r="C178" s="21" t="s">
+        <v>3045</v>
+      </c>
+      <c r="D178" s="22" t="s">
+        <v>3122</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A179" s="5">
+        <f t="shared" si="2"/>
+        <v>176</v>
+      </c>
+      <c r="B179" s="21" t="s">
+        <v>3046</v>
+      </c>
+      <c r="C179" s="21" t="s">
+        <v>3047</v>
+      </c>
+      <c r="D179" s="22" t="s">
+        <v>3134</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A180" s="5">
+        <f t="shared" si="2"/>
+        <v>177</v>
+      </c>
+      <c r="B180" s="21" t="s">
+        <v>3048</v>
+      </c>
+      <c r="C180" s="21" t="s">
+        <v>3049</v>
+      </c>
+      <c r="D180" s="22" t="s">
+        <v>3103</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A181" s="5">
+        <f t="shared" si="2"/>
+        <v>178</v>
+      </c>
+      <c r="B181" s="21" t="s">
+        <v>3050</v>
+      </c>
+      <c r="C181" s="21" t="s">
+        <v>3051</v>
+      </c>
+      <c r="D181" s="22" t="s">
+        <v>3111</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A182" s="5">
+        <f t="shared" si="2"/>
+        <v>179</v>
+      </c>
+      <c r="B182" s="21" t="s">
+        <v>3052</v>
+      </c>
+      <c r="C182" s="21" t="s">
+        <v>3053</v>
+      </c>
+      <c r="D182" s="22" t="s">
+        <v>3099</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A183" s="5">
+        <f t="shared" si="2"/>
+        <v>180</v>
+      </c>
+      <c r="B183" s="21" t="s">
+        <v>3054</v>
+      </c>
+      <c r="C183" s="21" t="s">
+        <v>3055</v>
+      </c>
+      <c r="D183" s="22" t="s">
+        <v>3144</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A184" s="5">
+        <f t="shared" si="2"/>
+        <v>181</v>
+      </c>
+      <c r="B184" s="21" t="s">
+        <v>3056</v>
+      </c>
+      <c r="C184" s="21" t="s">
+        <v>3057</v>
+      </c>
+      <c r="D184" s="22" t="s">
+        <v>3103</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A185" s="5">
+        <f t="shared" si="2"/>
+        <v>182</v>
+      </c>
+      <c r="B185" s="21" t="s">
+        <v>3058</v>
+      </c>
+      <c r="C185" s="21" t="s">
+        <v>3059</v>
+      </c>
+      <c r="D185" s="22" t="s">
+        <v>3099</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A186" s="5">
+        <f t="shared" si="2"/>
+        <v>183</v>
+      </c>
+      <c r="B186" s="21" t="s">
+        <v>3060</v>
+      </c>
+      <c r="C186" s="21" t="s">
+        <v>3061</v>
+      </c>
+      <c r="D186" s="22" t="s">
+        <v>3103</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A187" s="5">
+        <f t="shared" si="2"/>
+        <v>184</v>
+      </c>
+      <c r="B187" s="21" t="s">
+        <v>3062</v>
+      </c>
+      <c r="C187" s="21" t="s">
+        <v>3063</v>
+      </c>
+      <c r="D187" s="22" t="s">
+        <v>3134</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A188" s="5">
+        <f t="shared" si="2"/>
+        <v>185</v>
+      </c>
+      <c r="B188" s="21" t="s">
+        <v>3064</v>
+      </c>
+      <c r="C188" s="21" t="s">
+        <v>3065</v>
+      </c>
+      <c r="D188" s="22" t="s">
+        <v>3103</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A189" s="5">
+        <f t="shared" si="2"/>
+        <v>186</v>
+      </c>
+      <c r="B189" s="21" t="s">
+        <v>3066</v>
+      </c>
+      <c r="C189" s="21" t="s">
+        <v>3067</v>
+      </c>
+      <c r="D189" s="22" t="s">
+        <v>3110</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A190" s="5">
+        <f t="shared" si="2"/>
+        <v>187</v>
+      </c>
+      <c r="B190" s="21" t="s">
+        <v>3068</v>
+      </c>
+      <c r="C190" s="21" t="s">
+        <v>3069</v>
+      </c>
+      <c r="D190" s="22" t="s">
+        <v>3116</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A191" s="5">
+        <f t="shared" si="2"/>
+        <v>188</v>
+      </c>
+      <c r="B191" s="21" t="s">
+        <v>2060</v>
+      </c>
+      <c r="C191" s="21" t="s">
+        <v>2061</v>
+      </c>
+      <c r="D191" s="22" t="s">
+        <v>3116</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A192" s="5">
+        <f t="shared" si="2"/>
+        <v>189</v>
+      </c>
+      <c r="B192" s="21" t="s">
+        <v>3070</v>
+      </c>
+      <c r="C192" s="21" t="s">
+        <v>3071</v>
+      </c>
+      <c r="D192" s="22" t="s">
+        <v>3120</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A193" s="5">
+        <f t="shared" si="2"/>
+        <v>190</v>
+      </c>
+      <c r="B193" s="21" t="s">
+        <v>3072</v>
+      </c>
+      <c r="C193" s="21" t="s">
+        <v>3073</v>
+      </c>
+      <c r="D193" s="22" t="s">
+        <v>3123</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A194" s="5">
+        <f t="shared" si="2"/>
+        <v>191</v>
+      </c>
+      <c r="B194" s="21" t="s">
+        <v>3074</v>
+      </c>
+      <c r="C194" s="21" t="s">
+        <v>3075</v>
+      </c>
+      <c r="D194" s="22" t="s">
+        <v>3145</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A195" s="5">
+        <f t="shared" si="2"/>
+        <v>192</v>
+      </c>
+      <c r="B195" s="21" t="s">
+        <v>3076</v>
+      </c>
+      <c r="C195" s="21" t="s">
+        <v>3077</v>
+      </c>
+      <c r="D195" s="22" t="s">
+        <v>3117</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A196" s="5">
+        <f t="shared" si="2"/>
+        <v>193</v>
+      </c>
+      <c r="B196" s="21" t="s">
+        <v>3078</v>
+      </c>
+      <c r="C196" s="21" t="s">
+        <v>3079</v>
+      </c>
+      <c r="D196" s="22" t="s">
+        <v>3103</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A197" s="5">
+        <f t="shared" si="2"/>
+        <v>194</v>
+      </c>
+      <c r="B197" s="21" t="s">
+        <v>3080</v>
+      </c>
+      <c r="C197" s="21" t="s">
+        <v>3081</v>
+      </c>
+      <c r="D197" s="22" t="s">
+        <v>3144</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A198" s="5">
+        <f t="shared" ref="A198:A223" si="3">+A197+1</f>
+        <v>195</v>
+      </c>
+      <c r="B198" s="21" t="s">
+        <v>3082</v>
+      </c>
+      <c r="C198" s="21" t="s">
+        <v>3083</v>
+      </c>
+      <c r="D198" s="22" t="s">
+        <v>3101</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A199" s="5">
+        <f t="shared" si="3"/>
+        <v>196</v>
+      </c>
+      <c r="B199" s="21" t="s">
+        <v>3084</v>
+      </c>
+      <c r="C199" s="21" t="s">
+        <v>3085</v>
+      </c>
+      <c r="D199" s="22" t="s">
+        <v>3109</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A200" s="5">
+        <f t="shared" si="3"/>
+        <v>197</v>
+      </c>
+      <c r="B200" s="21" t="s">
+        <v>2108</v>
+      </c>
+      <c r="C200" s="21" t="s">
+        <v>2109</v>
+      </c>
+      <c r="D200" s="22" t="s">
+        <v>3101</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A201" s="5">
+        <f t="shared" si="3"/>
+        <v>198</v>
+      </c>
+      <c r="B201" s="21" t="s">
+        <v>2157</v>
+      </c>
+      <c r="C201" s="21" t="s">
+        <v>2158</v>
+      </c>
+      <c r="D201" s="22" t="s">
+        <v>3123</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A202" s="5">
+        <f t="shared" si="3"/>
+        <v>199</v>
+      </c>
+      <c r="B202" s="21" t="s">
+        <v>3086</v>
+      </c>
+      <c r="C202" s="21" t="s">
+        <v>3087</v>
+      </c>
+      <c r="D202" s="22" t="s">
+        <v>3140</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A203" s="5">
+        <f t="shared" si="3"/>
+        <v>200</v>
+      </c>
+      <c r="B203" s="21" t="s">
+        <v>2239</v>
+      </c>
+      <c r="C203" s="21" t="s">
+        <v>2240</v>
+      </c>
+      <c r="D203" s="22" t="s">
+        <v>3113</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A204" s="5">
+        <f t="shared" si="3"/>
+        <v>201</v>
+      </c>
+      <c r="B204" s="21" t="s">
+        <v>3088</v>
+      </c>
+      <c r="C204" s="21" t="s">
+        <v>3089</v>
+      </c>
+      <c r="D204" s="22" t="s">
+        <v>3123</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A205" s="5">
+        <f t="shared" si="3"/>
+        <v>202</v>
+      </c>
+      <c r="B205" s="21" t="s">
+        <v>3090</v>
+      </c>
+      <c r="C205" s="21" t="s">
+        <v>3091</v>
+      </c>
+      <c r="D205" s="22" t="s">
+        <v>3101</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A206" s="5">
+        <f t="shared" si="3"/>
+        <v>203</v>
+      </c>
+      <c r="B206" s="21" t="s">
+        <v>3092</v>
+      </c>
+      <c r="C206" s="21" t="s">
+        <v>3093</v>
+      </c>
+      <c r="D206" s="22" t="s">
+        <v>3144</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A207" s="5">
+        <f t="shared" si="3"/>
+        <v>204</v>
+      </c>
+      <c r="B207" s="21" t="s">
+        <v>3094</v>
+      </c>
+      <c r="C207" s="21" t="s">
+        <v>3095</v>
+      </c>
+      <c r="D207" s="22" t="s">
+        <v>3103</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A208" s="5">
+        <f t="shared" si="3"/>
+        <v>205</v>
+      </c>
+      <c r="B208" s="21" t="s">
+        <v>2356</v>
+      </c>
+      <c r="C208" s="21" t="s">
+        <v>2357</v>
+      </c>
+      <c r="D208" s="22" t="s">
+        <v>3134</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A209" s="5">
+        <f t="shared" si="3"/>
+        <v>206</v>
+      </c>
+      <c r="B209" s="21" t="s">
+        <v>2456</v>
+      </c>
+      <c r="C209" s="21" t="s">
+        <v>2457</v>
+      </c>
+      <c r="D209" s="22" t="s">
+        <v>3103</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A210" s="5">
+        <f t="shared" si="3"/>
+        <v>207</v>
+      </c>
+      <c r="B210" s="21" t="s">
+        <v>3096</v>
+      </c>
+      <c r="C210" s="21" t="s">
+        <v>3097</v>
+      </c>
+      <c r="D210" s="22" t="s">
+        <v>3099</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A211" s="5">
+        <f t="shared" si="3"/>
+        <v>208</v>
+      </c>
+      <c r="B211" s="21" t="s">
+        <v>2486</v>
+      </c>
+      <c r="C211" s="21" t="s">
+        <v>3098</v>
+      </c>
+      <c r="D211" s="22" t="s">
+        <v>3101</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A212" s="5">
+        <f t="shared" si="3"/>
+        <v>209</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A213" s="5">
+        <f t="shared" si="3"/>
+        <v>210</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A214" s="5">
+        <f t="shared" si="3"/>
+        <v>211</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A215" s="5">
+        <f t="shared" si="3"/>
+        <v>212</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A216" s="5">
+        <f t="shared" si="3"/>
+        <v>213</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A217" s="5">
+        <f t="shared" si="3"/>
+        <v>214</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A218" s="5">
+        <f t="shared" si="3"/>
+        <v>215</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A219" s="5">
+        <f t="shared" si="3"/>
+        <v>216</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A220" s="5">
+        <f t="shared" si="3"/>
+        <v>217</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A221" s="5">
+        <f t="shared" si="3"/>
+        <v>218</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A222" s="5">
+        <f t="shared" si="3"/>
+        <v>219</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A223" s="5">
+        <f t="shared" si="3"/>
+        <v>220</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{FEF2C0D4-AEE0-4A3F-A661-7994CD0FEC35}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64220020-6BD7-46F2-AABD-111B1D1A5DFE}">
   <dimension ref="A1:R61"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="D56" sqref="D56"/>
+    <sheetView topLeftCell="J1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:AB3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35334,7 +40386,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A5F823E-5347-4B23-A0C5-E185C130E0FF}">
   <dimension ref="A1:R115"/>
   <sheetViews>
@@ -37000,11 +42052,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECE92755-B01A-44C9-A171-B09A4DADF52A}">
   <dimension ref="A1:O45"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:O3"/>
     </sheetView>
   </sheetViews>
@@ -37526,7 +42578,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2515F9AB-4CC9-4728-901D-0E8F55047584}">
   <dimension ref="A1:O86"/>
   <sheetViews>
@@ -38102,7 +43154,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA4DB0F7-C175-4D39-9078-61F3F3D20DC1}">
   <dimension ref="A1:O81"/>
   <sheetViews>
@@ -39066,7 +44118,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1062CDD-B680-473A-A3AF-BE0872DD0DC0}">
   <dimension ref="A1:O63"/>
   <sheetViews>
@@ -39658,7 +44710,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AE86BD9-C9F8-4831-8BCB-392E8BDA3E25}">
   <dimension ref="B2:C6"/>
   <sheetViews>
